--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>27.66496506960896</v>
+      </c>
+      <c r="C2">
+        <v>17.5208859611634</v>
+      </c>
+      <c r="D2">
+        <v>7.1111439043161</v>
+      </c>
+      <c r="E2">
+        <v>6.591869854683992</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.090263789297981</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>6.157624569625697</v>
+      </c>
+      <c r="M2">
+        <v>15.36096196623503</v>
+      </c>
+      <c r="N2">
+        <v>15.40979566811446</v>
+      </c>
+      <c r="O2">
+        <v>35.2745737440318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>25.90321298610186</v>
+      </c>
+      <c r="C3">
+        <v>16.24050068086328</v>
+      </c>
+      <c r="D3">
+        <v>6.591295461948785</v>
+      </c>
+      <c r="E3">
+        <v>6.467360577874072</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.104333856166663</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.087692599521903</v>
+      </c>
+      <c r="M3">
+        <v>14.6816666439939</v>
+      </c>
+      <c r="N3">
+        <v>15.54249741013433</v>
+      </c>
+      <c r="O3">
+        <v>33.85330299975238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>24.79022289029469</v>
+      </c>
+      <c r="C4">
+        <v>15.4184374466427</v>
+      </c>
+      <c r="D4">
+        <v>6.267783915996496</v>
+      </c>
+      <c r="E4">
+        <v>6.39095833543407</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.113119478541166</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.048343549203667</v>
+      </c>
+      <c r="M4">
+        <v>14.26426737626195</v>
+      </c>
+      <c r="N4">
+        <v>15.62992118539012</v>
+      </c>
+      <c r="O4">
+        <v>32.99262758907361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>24.32896307847433</v>
+      </c>
+      <c r="C5">
+        <v>15.07416321865596</v>
+      </c>
+      <c r="D5">
+        <v>6.150505735412627</v>
+      </c>
+      <c r="E5">
+        <v>6.359796609458865</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.116741378731623</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.033183661811109</v>
+      </c>
+      <c r="M5">
+        <v>14.09423151685877</v>
+      </c>
+      <c r="N5">
+        <v>15.66696354965566</v>
+      </c>
+      <c r="O5">
+        <v>32.64502176531892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>24.25191258888679</v>
+      </c>
+      <c r="C6">
+        <v>15.01642956208546</v>
+      </c>
+      <c r="D6">
+        <v>6.130920497409723</v>
+      </c>
+      <c r="E6">
+        <v>6.35461954714035</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.117345442886334</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.030718450575328</v>
+      </c>
+      <c r="M6">
+        <v>14.06600533830063</v>
+      </c>
+      <c r="N6">
+        <v>15.6731978546827</v>
+      </c>
+      <c r="O6">
+        <v>32.58749527944081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>24.78403309397663</v>
+      </c>
+      <c r="C7">
+        <v>15.41383231975499</v>
+      </c>
+      <c r="D7">
+        <v>6.266209761613132</v>
+      </c>
+      <c r="E7">
+        <v>6.390538235261421</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.113168149907077</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.048135589554635</v>
+      </c>
+      <c r="M7">
+        <v>14.26197377374147</v>
+      </c>
+      <c r="N7">
+        <v>15.63041511270606</v>
+      </c>
+      <c r="O7">
+        <v>32.98792680651695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>27.06405875933194</v>
+      </c>
+      <c r="C8">
+        <v>17.08670357025123</v>
+      </c>
+      <c r="D8">
+        <v>6.934872820265013</v>
+      </c>
+      <c r="E8">
+        <v>6.548904033633969</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.09508780186763</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.132750092191566</v>
+      </c>
+      <c r="M8">
+        <v>15.12687445328643</v>
+      </c>
+      <c r="N8">
+        <v>15.45426712775406</v>
+      </c>
+      <c r="O8">
+        <v>34.78207726195355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>31.38850144974753</v>
+      </c>
+      <c r="C9">
+        <v>20.09487342890658</v>
+      </c>
+      <c r="D9">
+        <v>8.155779230982434</v>
+      </c>
+      <c r="E9">
+        <v>6.86193856206189</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.060547462248285</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.328494642209844</v>
+      </c>
+      <c r="M9">
+        <v>16.81673760390554</v>
+      </c>
+      <c r="N9">
+        <v>15.1601335660982</v>
+      </c>
+      <c r="O9">
+        <v>38.39475928160709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>34.55207127452417</v>
+      </c>
+      <c r="C10">
+        <v>22.15887455344695</v>
+      </c>
+      <c r="D10">
+        <v>8.992746183708183</v>
+      </c>
+      <c r="E10">
+        <v>7.097035485518393</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.035328850114702</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>6.492576495687652</v>
+      </c>
+      <c r="M10">
+        <v>18.22561795556471</v>
+      </c>
+      <c r="N10">
+        <v>14.98215912679185</v>
+      </c>
+      <c r="O10">
+        <v>41.11324795408846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>35.95346301484921</v>
+      </c>
+      <c r="C11">
+        <v>23.07142196859147</v>
+      </c>
+      <c r="D11">
+        <v>9.362504659976979</v>
+      </c>
+      <c r="E11">
+        <v>7.206136476136507</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.023782227100828</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6.572180169376956</v>
+      </c>
+      <c r="M11">
+        <v>18.97274762955116</v>
+      </c>
+      <c r="N11">
+        <v>14.91139679147586</v>
+      </c>
+      <c r="O11">
+        <v>42.36801706671304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>36.4793686584693</v>
+      </c>
+      <c r="C12">
+        <v>23.41371713719218</v>
+      </c>
+      <c r="D12">
+        <v>9.501145546231026</v>
+      </c>
+      <c r="E12">
+        <v>7.24787001698866</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.019388135093334</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6.603094026115063</v>
+      </c>
+      <c r="M12">
+        <v>19.25268145504936</v>
+      </c>
+      <c r="N12">
+        <v>14.8862672981455</v>
+      </c>
+      <c r="O12">
+        <v>42.84632745323889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>36.3663057074372</v>
+      </c>
+      <c r="C13">
+        <v>23.34013367390088</v>
+      </c>
+      <c r="D13">
+        <v>9.47134450871134</v>
+      </c>
+      <c r="E13">
+        <v>7.238861299732026</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.020335638758098</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6.5964009297961</v>
+      </c>
+      <c r="M13">
+        <v>19.1925188674305</v>
+      </c>
+      <c r="N13">
+        <v>14.89160166456762</v>
+      </c>
+      <c r="O13">
+        <v>42.74316340285966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>35.99682095089337</v>
+      </c>
+      <c r="C14">
+        <v>23.09964492930516</v>
+      </c>
+      <c r="D14">
+        <v>9.373937090103178</v>
+      </c>
+      <c r="E14">
+        <v>7.209560802692618</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.023421225669801</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6.574707684833085</v>
+      </c>
+      <c r="M14">
+        <v>18.99583544020041</v>
+      </c>
+      <c r="N14">
+        <v>14.90929468941632</v>
+      </c>
+      <c r="O14">
+        <v>42.407300807261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>35.7699013800996</v>
+      </c>
+      <c r="C15">
+        <v>22.95193036318759</v>
+      </c>
+      <c r="D15">
+        <v>9.314099217512174</v>
+      </c>
+      <c r="E15">
+        <v>7.191671669396539</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.025308061801286</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>6.561522031874844</v>
+      </c>
+      <c r="M15">
+        <v>18.87498436029021</v>
+      </c>
+      <c r="N15">
+        <v>14.92035580658763</v>
+      </c>
+      <c r="O15">
+        <v>42.20200614765096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>34.45978061533895</v>
+      </c>
+      <c r="C16">
+        <v>22.09874965705635</v>
+      </c>
+      <c r="D16">
+        <v>8.968377022933005</v>
+      </c>
+      <c r="E16">
+        <v>7.089957677985407</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.036081058762737</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6.487478617454363</v>
+      </c>
+      <c r="M16">
+        <v>18.17635113794657</v>
+      </c>
+      <c r="N16">
+        <v>14.9870051127452</v>
+      </c>
+      <c r="O16">
+        <v>41.03165305721163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>33.64682334116549</v>
+      </c>
+      <c r="C17">
+        <v>21.56894273361932</v>
+      </c>
+      <c r="D17">
+        <v>8.753607696787617</v>
+      </c>
+      <c r="E17">
+        <v>7.028182178735609</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.042663662522026</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6.443363012603832</v>
+      </c>
+      <c r="M17">
+        <v>17.74201655760764</v>
+      </c>
+      <c r="N17">
+        <v>15.03063562165351</v>
+      </c>
+      <c r="O17">
+        <v>40.31865096493274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>33.17563347096292</v>
+      </c>
+      <c r="C18">
+        <v>21.26169292293942</v>
+      </c>
+      <c r="D18">
+        <v>8.629030657521811</v>
+      </c>
+      <c r="E18">
+        <v>6.992845543295625</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.046443539318691</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.418452028224069</v>
+      </c>
+      <c r="M18">
+        <v>17.50923759651745</v>
+      </c>
+      <c r="N18">
+        <v>15.05667677487566</v>
+      </c>
+      <c r="O18">
+        <v>39.91021220758071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>33.01546090967554</v>
+      </c>
+      <c r="C19">
+        <v>21.15721615888702</v>
+      </c>
+      <c r="D19">
+        <v>8.586665525080123</v>
+      </c>
+      <c r="E19">
+        <v>6.980911681208253</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.047722567426976</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6.410095599027466</v>
+      </c>
+      <c r="M19">
+        <v>17.44651766596672</v>
+      </c>
+      <c r="N19">
+        <v>15.06565083543462</v>
+      </c>
+      <c r="O19">
+        <v>39.77219351244781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>33.73373213914935</v>
+      </c>
+      <c r="C20">
+        <v>21.62559874606781</v>
+      </c>
+      <c r="D20">
+        <v>8.776577310397235</v>
+      </c>
+      <c r="E20">
+        <v>7.034737383208645</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.041963654347327</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>6.448010887109165</v>
+      </c>
+      <c r="M20">
+        <v>17.78848041132197</v>
+      </c>
+      <c r="N20">
+        <v>15.02589183552632</v>
+      </c>
+      <c r="O20">
+        <v>40.39437595607768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>36.10547114106076</v>
+      </c>
+      <c r="C21">
+        <v>23.17036631453209</v>
+      </c>
+      <c r="D21">
+        <v>9.402583659996095</v>
+      </c>
+      <c r="E21">
+        <v>7.218154696202404</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.022515597976243</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>6.581058125978038</v>
+      </c>
+      <c r="M21">
+        <v>19.05368388725202</v>
+      </c>
+      <c r="N21">
+        <v>14.90405080346983</v>
+      </c>
+      <c r="O21">
+        <v>42.50586072323704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>37.6281417389656</v>
+      </c>
+      <c r="C22">
+        <v>24.16123449373509</v>
+      </c>
+      <c r="D22">
+        <v>9.803798236236187</v>
+      </c>
+      <c r="E22">
+        <v>7.340542024990519</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.009672478850249</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>6.672533020360212</v>
+      </c>
+      <c r="M22">
+        <v>19.86337633007064</v>
+      </c>
+      <c r="N22">
+        <v>14.83425703167061</v>
+      </c>
+      <c r="O22">
+        <v>43.90464598485121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>36.81771603468825</v>
+      </c>
+      <c r="C23">
+        <v>23.63390422604613</v>
+      </c>
+      <c r="D23">
+        <v>9.590311399304413</v>
+      </c>
+      <c r="E23">
+        <v>7.274948917548066</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.016543377944112</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>6.62327592053646</v>
+      </c>
+      <c r="M23">
+        <v>19.43265863885285</v>
+      </c>
+      <c r="N23">
+        <v>14.87053084742264</v>
+      </c>
+      <c r="O23">
+        <v>43.15613008464148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>33.69445258601647</v>
+      </c>
+      <c r="C24">
+        <v>21.59999287630943</v>
+      </c>
+      <c r="D24">
+        <v>8.766196199176647</v>
+      </c>
+      <c r="E24">
+        <v>7.031773225833405</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.04228014142127</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>6.445908180292713</v>
+      </c>
+      <c r="M24">
+        <v>17.76748142697404</v>
+      </c>
+      <c r="N24">
+        <v>15.0280335339033</v>
+      </c>
+      <c r="O24">
+        <v>40.36013613020015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>30.18639121306752</v>
+      </c>
+      <c r="C25">
+        <v>19.30833916812882</v>
+      </c>
+      <c r="D25">
+        <v>7.836650092113931</v>
+      </c>
+      <c r="E25">
+        <v>6.77665795374063</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.069831375314199</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>6.27214783500323</v>
+      </c>
+      <c r="M25">
+        <v>16.36058280157351</v>
+      </c>
+      <c r="N25">
+        <v>15.23357584204382</v>
+      </c>
+      <c r="O25">
+        <v>37.40705531463538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.66496506960896</v>
+        <v>10.79698226048839</v>
       </c>
       <c r="C2">
-        <v>17.5208859611634</v>
+        <v>13.31860889673344</v>
       </c>
       <c r="D2">
-        <v>7.1111439043161</v>
+        <v>6.826473994608036</v>
       </c>
       <c r="E2">
-        <v>6.591869854683992</v>
+        <v>4.720658233192926</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.090263789297981</v>
+        <v>2.174362272650599</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>66.42976777867065</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.04034077729604</v>
       </c>
       <c r="L2">
-        <v>6.157624569625697</v>
+        <v>7.270177797719788</v>
       </c>
       <c r="M2">
-        <v>15.36096196623503</v>
+        <v>9.820797820013071</v>
       </c>
       <c r="N2">
-        <v>15.40979566811446</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>35.2745737440318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.90321298610186</v>
+        <v>10.32922713587694</v>
       </c>
       <c r="C3">
-        <v>16.24050068086328</v>
+        <v>12.45205484060691</v>
       </c>
       <c r="D3">
-        <v>6.591295461948785</v>
+        <v>6.364780323778082</v>
       </c>
       <c r="E3">
-        <v>6.467360577874072</v>
+        <v>4.749779630533329</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.104333856166663</v>
+        <v>2.187639650260906</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>62.93077242332005</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.52039030604581</v>
       </c>
       <c r="L3">
-        <v>6.087692599521903</v>
+        <v>7.146262220291917</v>
       </c>
       <c r="M3">
-        <v>14.6816666439939</v>
+        <v>9.701666610028301</v>
       </c>
       <c r="N3">
-        <v>15.54249741013433</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>33.85330299975238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.79022289029469</v>
+        <v>10.05742859302223</v>
       </c>
       <c r="C4">
-        <v>15.4184374466427</v>
+        <v>11.89997316265717</v>
       </c>
       <c r="D4">
-        <v>6.267783915996496</v>
+        <v>6.101315510883643</v>
       </c>
       <c r="E4">
-        <v>6.39095833543407</v>
+        <v>4.768601136940772</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.113119478541166</v>
+        <v>2.195917032425043</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>60.71856439074632</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.20797102682966</v>
       </c>
       <c r="L4">
-        <v>6.048343549203667</v>
+        <v>7.073072113259886</v>
       </c>
       <c r="M4">
-        <v>14.26426737626195</v>
+        <v>9.639044855890621</v>
       </c>
       <c r="N4">
-        <v>15.62992118539012</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>32.99262758907361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.32896307847433</v>
+        <v>9.950579626781732</v>
       </c>
       <c r="C5">
-        <v>15.07416321865596</v>
+        <v>11.66997679549897</v>
       </c>
       <c r="D5">
-        <v>6.150505735412627</v>
+        <v>5.992277009824068</v>
       </c>
       <c r="E5">
-        <v>6.359796609458865</v>
+        <v>4.776507656386118</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.116741378731623</v>
+        <v>2.19932617743646</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>59.8012085612562</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.08245966075837</v>
       </c>
       <c r="L5">
-        <v>6.033183661811109</v>
+        <v>7.043962089153622</v>
       </c>
       <c r="M5">
-        <v>14.09423151685877</v>
+        <v>9.616069104348199</v>
       </c>
       <c r="N5">
-        <v>15.66696354965566</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>32.64502176531892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.25191258888679</v>
+        <v>9.933074864293543</v>
       </c>
       <c r="C6">
-        <v>15.01642956208546</v>
+        <v>11.63148422057983</v>
       </c>
       <c r="D6">
-        <v>6.130920497409723</v>
+        <v>5.974072151019177</v>
       </c>
       <c r="E6">
-        <v>6.35461954714035</v>
+        <v>4.777834823986159</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.117345442886334</v>
+        <v>2.199894566724956</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>59.64793285285852</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.0617303287043</v>
       </c>
       <c r="L6">
-        <v>6.030718450575328</v>
+        <v>7.039171279184655</v>
       </c>
       <c r="M6">
-        <v>14.06600533830063</v>
+        <v>9.612404592729661</v>
       </c>
       <c r="N6">
-        <v>15.6731978546827</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>32.58749527944081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.78403309397663</v>
+        <v>10.05597170000949</v>
       </c>
       <c r="C7">
-        <v>15.41383231975499</v>
+        <v>11.89689162118357</v>
       </c>
       <c r="D7">
-        <v>6.266209761613132</v>
+        <v>6.099851671680605</v>
       </c>
       <c r="E7">
-        <v>6.390538235261421</v>
+        <v>4.768706808793121</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.113168149907077</v>
+        <v>2.195962857633261</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>60.70625647377658</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.20627091217633</v>
       </c>
       <c r="L7">
-        <v>6.048135589554635</v>
+        <v>7.072676643157304</v>
       </c>
       <c r="M7">
-        <v>14.26197377374147</v>
+        <v>9.638724835680275</v>
       </c>
       <c r="N7">
-        <v>15.63041511270606</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>32.98792680651695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.06405875933194</v>
+        <v>10.63252192889621</v>
       </c>
       <c r="C8">
-        <v>17.08670357025123</v>
+        <v>13.02397001508781</v>
       </c>
       <c r="D8">
-        <v>6.934872820265013</v>
+        <v>6.659032384184801</v>
       </c>
       <c r="E8">
-        <v>6.548904033633969</v>
+        <v>4.730503935986103</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.09508780186763</v>
+        <v>2.178917285318749</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>65.23661437840737</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.85968596627884</v>
       </c>
       <c r="L8">
-        <v>6.132750092191566</v>
+        <v>7.226842862086628</v>
       </c>
       <c r="M8">
-        <v>15.12687445328643</v>
+        <v>9.777473942234955</v>
       </c>
       <c r="N8">
-        <v>15.45426712775406</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>34.78207726195355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.38850144974753</v>
+        <v>12.07723087646283</v>
       </c>
       <c r="C9">
-        <v>20.09487342890658</v>
+        <v>15.07702748069802</v>
       </c>
       <c r="D9">
-        <v>8.155779230982434</v>
+        <v>7.816370437975285</v>
       </c>
       <c r="E9">
-        <v>6.86193856206189</v>
+        <v>4.663070986573458</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.060547462248285</v>
+        <v>2.146247633463028</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>73.61561984425551</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.22680460135216</v>
       </c>
       <c r="L9">
-        <v>6.328494642209844</v>
+        <v>7.552841673150176</v>
       </c>
       <c r="M9">
-        <v>16.81673760390554</v>
+        <v>10.1378864116105</v>
       </c>
       <c r="N9">
-        <v>15.1601335660982</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>38.39475928160709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.55207127452417</v>
+        <v>13.44609197049936</v>
       </c>
       <c r="C10">
-        <v>22.15887455344695</v>
+        <v>16.49509555449539</v>
       </c>
       <c r="D10">
-        <v>8.992746183708183</v>
+        <v>8.606234654101325</v>
       </c>
       <c r="E10">
-        <v>7.097035485518393</v>
+        <v>4.618153229394206</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.035328850114702</v>
+        <v>2.122327883802965</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>79.47954657936471</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.6542123298349</v>
       </c>
       <c r="L10">
-        <v>6.492576495687652</v>
+        <v>7.80813255834309</v>
       </c>
       <c r="M10">
-        <v>18.22561795556471</v>
+        <v>10.46366831261852</v>
       </c>
       <c r="N10">
-        <v>14.98215912679185</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>41.11324795408846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.95346301484921</v>
+        <v>14.06490204756701</v>
       </c>
       <c r="C11">
-        <v>23.07142196859147</v>
+        <v>17.12270127819628</v>
       </c>
       <c r="D11">
-        <v>9.362504659976979</v>
+        <v>8.954168865544485</v>
       </c>
       <c r="E11">
-        <v>7.206136476136507</v>
+        <v>4.598753571558071</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.023782227100828</v>
+        <v>2.111362021285634</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>82.09126045657314</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.28902271611825</v>
       </c>
       <c r="L11">
-        <v>6.572180169376956</v>
+        <v>7.928128478879614</v>
       </c>
       <c r="M11">
-        <v>18.97274762955116</v>
+        <v>10.62690685541249</v>
       </c>
       <c r="N11">
-        <v>14.91139679147586</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>42.36801706671304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.4793686584693</v>
+        <v>14.29904028454972</v>
       </c>
       <c r="C12">
-        <v>23.41371713719218</v>
+        <v>17.35808462578602</v>
       </c>
       <c r="D12">
-        <v>9.501145546231026</v>
+        <v>9.084455954967453</v>
       </c>
       <c r="E12">
-        <v>7.24787001698866</v>
+        <v>4.591560280568948</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.019388135093334</v>
+        <v>2.107187089376249</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>83.0731369600108</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.52768873707395</v>
       </c>
       <c r="L12">
-        <v>6.603094026115063</v>
+        <v>7.974171863769024</v>
       </c>
       <c r="M12">
-        <v>19.25268145504936</v>
+        <v>10.69105827368034</v>
       </c>
       <c r="N12">
-        <v>14.8862672981455</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>42.84632745323889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.3663057074372</v>
+        <v>14.2486160622529</v>
       </c>
       <c r="C13">
-        <v>23.34013367390088</v>
+        <v>17.30748750881773</v>
       </c>
       <c r="D13">
-        <v>9.47134450871134</v>
+        <v>9.056458622768213</v>
       </c>
       <c r="E13">
-        <v>7.238861299732026</v>
+        <v>4.593102596096498</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.020335638758098</v>
+        <v>2.108087413887776</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>82.86197189849597</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.47635780064902</v>
       </c>
       <c r="L13">
-        <v>6.5964009297961</v>
+        <v>7.964227846175177</v>
       </c>
       <c r="M13">
-        <v>19.1925188674305</v>
+        <v>10.67713511346609</v>
       </c>
       <c r="N13">
-        <v>14.89160166456762</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>42.74316340285966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.99682095089337</v>
+        <v>14.08416613401836</v>
       </c>
       <c r="C14">
-        <v>23.09964492930516</v>
+        <v>17.14211048866321</v>
       </c>
       <c r="D14">
-        <v>9.373937090103178</v>
+        <v>8.964916025459303</v>
       </c>
       <c r="E14">
-        <v>7.209560802692618</v>
+        <v>4.598158679522866</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.023421225669801</v>
+        <v>2.11101906094215</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>82.17217667906795</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.30869010271701</v>
       </c>
       <c r="L14">
-        <v>6.574707684833085</v>
+        <v>7.931904077560474</v>
       </c>
       <c r="M14">
-        <v>18.99583544020041</v>
+        <v>10.63213670293954</v>
       </c>
       <c r="N14">
-        <v>14.90929468941632</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>42.407300807261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.7699013800996</v>
+        <v>13.9834233867182</v>
       </c>
       <c r="C15">
-        <v>22.95193036318759</v>
+        <v>17.04052371162871</v>
       </c>
       <c r="D15">
-        <v>9.314099217512174</v>
+        <v>8.908657805000294</v>
       </c>
       <c r="E15">
-        <v>7.191671669396539</v>
+        <v>4.601275749311327</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.025308061801286</v>
+        <v>2.112811528880556</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>81.74876080958377</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.20577644389197</v>
       </c>
       <c r="L15">
-        <v>6.561522031874844</v>
+        <v>7.912185084684737</v>
       </c>
       <c r="M15">
-        <v>18.87498436029021</v>
+        <v>10.60488381858757</v>
       </c>
       <c r="N15">
-        <v>14.92035580658763</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>42.20200614765096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.45978061533895</v>
+        <v>13.40560228578065</v>
       </c>
       <c r="C16">
-        <v>22.09874965705635</v>
+        <v>16.4537472122258</v>
       </c>
       <c r="D16">
-        <v>8.968377022933005</v>
+        <v>8.583281156143963</v>
       </c>
       <c r="E16">
-        <v>7.089957677985407</v>
+        <v>4.619442174154</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.036081058762737</v>
+        <v>2.123041990332051</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>79.30781322625313</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.61246345712236</v>
       </c>
       <c r="L16">
-        <v>6.487478617454363</v>
+        <v>7.800372091871951</v>
       </c>
       <c r="M16">
-        <v>18.17635113794657</v>
+        <v>10.45331714778069</v>
       </c>
       <c r="N16">
-        <v>14.9870051127452</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>41.03165305721163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.64682334116549</v>
+        <v>13.0503637084826</v>
       </c>
       <c r="C17">
-        <v>21.56894273361932</v>
+        <v>16.08945231009108</v>
       </c>
       <c r="D17">
-        <v>8.753607696787617</v>
+        <v>8.380870473463899</v>
       </c>
       <c r="E17">
-        <v>7.028182178735609</v>
+        <v>4.630854009491606</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.042663662522026</v>
+        <v>2.129289618965502</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>77.79663910752916</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.2450047789978</v>
       </c>
       <c r="L17">
-        <v>6.443363012603832</v>
+        <v>7.732798099185521</v>
       </c>
       <c r="M17">
-        <v>17.74201655760764</v>
+        <v>10.36430301274473</v>
       </c>
       <c r="N17">
-        <v>15.03063562165351</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>40.31865096493274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.17563347096292</v>
+        <v>12.84564621082025</v>
       </c>
       <c r="C18">
-        <v>21.26169292293942</v>
+        <v>15.87825680725533</v>
       </c>
       <c r="D18">
-        <v>8.629030657521811</v>
+        <v>8.263366708762945</v>
       </c>
       <c r="E18">
-        <v>6.992845543295625</v>
+        <v>4.637514749187311</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.046443539318691</v>
+        <v>2.132875826346891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>76.92212949925111</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.03225961645833</v>
       </c>
       <c r="L18">
-        <v>6.418452028224069</v>
+        <v>7.694291360580061</v>
       </c>
       <c r="M18">
-        <v>17.50923759651745</v>
+        <v>10.31450813533999</v>
       </c>
       <c r="N18">
-        <v>15.05667677487566</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>39.91021220758071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.01546090967554</v>
+        <v>12.77625506792489</v>
       </c>
       <c r="C19">
-        <v>21.15721615888702</v>
+        <v>15.80645777256818</v>
       </c>
       <c r="D19">
-        <v>8.586665525080123</v>
+        <v>8.223391319766314</v>
       </c>
       <c r="E19">
-        <v>6.980911681208253</v>
+        <v>4.639786507169142</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.047722567426976</v>
+        <v>2.134089091151374</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>76.62509803686955</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.95997849331584</v>
       </c>
       <c r="L19">
-        <v>6.410095599027466</v>
+        <v>7.681314215600709</v>
       </c>
       <c r="M19">
-        <v>17.44651766596672</v>
+        <v>10.29788467255614</v>
       </c>
       <c r="N19">
-        <v>15.06565083543462</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>39.77219351244781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.73373213914935</v>
+        <v>13.0882178363103</v>
       </c>
       <c r="C20">
-        <v>21.62559874606781</v>
+        <v>16.12840267548281</v>
       </c>
       <c r="D20">
-        <v>8.776577310397235</v>
+        <v>8.402528333536321</v>
       </c>
       <c r="E20">
-        <v>7.034737383208645</v>
+        <v>4.629629139663951</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.041963654347327</v>
+        <v>2.12862536856336</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>77.95805126438616</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.28426307885035</v>
       </c>
       <c r="L20">
-        <v>6.448010887109165</v>
+        <v>7.739953896228981</v>
       </c>
       <c r="M20">
-        <v>17.78848041132197</v>
+        <v>10.37363227031048</v>
       </c>
       <c r="N20">
-        <v>15.02589183552632</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>40.39437595607768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.10547114106076</v>
+        <v>14.13247085818608</v>
       </c>
       <c r="C21">
-        <v>23.17036631453209</v>
+        <v>17.19074536279214</v>
       </c>
       <c r="D21">
-        <v>9.402583659996095</v>
+        <v>8.991842673667289</v>
       </c>
       <c r="E21">
-        <v>7.218154696202404</v>
+        <v>4.596669392042031</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.022515597976243</v>
+        <v>2.110158663371032</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>82.37497107647599</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.35798167228893</v>
       </c>
       <c r="L21">
-        <v>6.581058125978038</v>
+        <v>7.941381523229746</v>
       </c>
       <c r="M21">
-        <v>19.05368388725202</v>
+        <v>10.64528888232291</v>
       </c>
       <c r="N21">
-        <v>14.90405080346983</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>42.50586072323704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.6281417389656</v>
+        <v>14.81407572771059</v>
       </c>
       <c r="C22">
-        <v>24.16123449373509</v>
+        <v>17.87735043466976</v>
       </c>
       <c r="D22">
-        <v>9.803798236236187</v>
+        <v>9.368535380629217</v>
       </c>
       <c r="E22">
-        <v>7.340542024990519</v>
+        <v>4.576023026108472</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.009672478850249</v>
+        <v>2.097952939953527</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>85.2207796034366</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.04989852181646</v>
       </c>
       <c r="L22">
-        <v>6.672533020360212</v>
+        <v>8.076576488251181</v>
       </c>
       <c r="M22">
-        <v>19.86337633007064</v>
+        <v>10.97461015254567</v>
       </c>
       <c r="N22">
-        <v>14.83425703167061</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>43.90464598485121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.81771603468825</v>
+        <v>14.45022309254497</v>
       </c>
       <c r="C23">
-        <v>23.63390422604613</v>
+        <v>17.50947436807092</v>
       </c>
       <c r="D23">
-        <v>9.590311399304413</v>
+        <v>9.168198436191313</v>
       </c>
       <c r="E23">
-        <v>7.274948917548066</v>
+        <v>4.586958632940102</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.016543377944112</v>
+        <v>2.104483733983132</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>83.70529250193979</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.68136854230198</v>
       </c>
       <c r="L23">
-        <v>6.62327592053646</v>
+        <v>8.004076028208845</v>
       </c>
       <c r="M23">
-        <v>19.43265863885285</v>
+        <v>10.73315142460309</v>
       </c>
       <c r="N23">
-        <v>14.87053084742264</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>43.15613008464148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.69445258601647</v>
+        <v>13.07110552571423</v>
       </c>
       <c r="C24">
-        <v>21.59999287630943</v>
+        <v>16.11079870653688</v>
       </c>
       <c r="D24">
-        <v>8.766196199176647</v>
+        <v>8.392740363066421</v>
       </c>
       <c r="E24">
-        <v>7.031773225833405</v>
+        <v>4.630182592359408</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.04228014142127</v>
+        <v>2.128925692984427</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>77.88509469538869</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.26651906375296</v>
       </c>
       <c r="L24">
-        <v>6.445908180292713</v>
+        <v>7.736717697160793</v>
       </c>
       <c r="M24">
-        <v>17.76748142697404</v>
+        <v>10.36941022565944</v>
       </c>
       <c r="N24">
-        <v>15.0280335339033</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>40.36013613020015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.18639121306752</v>
+        <v>11.5677344688831</v>
       </c>
       <c r="C25">
-        <v>19.30833916812882</v>
+        <v>14.53803735678091</v>
       </c>
       <c r="D25">
-        <v>7.836650092113931</v>
+        <v>7.51441769341689</v>
       </c>
       <c r="E25">
-        <v>6.77665795374063</v>
+        <v>4.680508184504599</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.069831375314199</v>
+        <v>2.155040520139857</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>71.40201859819658</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.82699673074926</v>
       </c>
       <c r="L25">
-        <v>6.27214783500323</v>
+        <v>7.461997057965196</v>
       </c>
       <c r="M25">
-        <v>16.36058280157351</v>
+        <v>10.0302262810645</v>
       </c>
       <c r="N25">
-        <v>15.23357584204382</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>37.40705531463538</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.79698226048839</v>
+        <v>16.62839213472384</v>
       </c>
       <c r="C2">
-        <v>13.31860889673344</v>
+        <v>9.778901425698864</v>
       </c>
       <c r="D2">
-        <v>6.826473994608036</v>
+        <v>6.103927342922541</v>
       </c>
       <c r="E2">
-        <v>4.720658233192926</v>
+        <v>8.492670814927186</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.174362272650599</v>
+        <v>3.812089592183115</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>66.42976777867065</v>
+        <v>55.06763347094022</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.04034077729604</v>
+        <v>16.34857585258439</v>
       </c>
       <c r="L2">
-        <v>7.270177797719788</v>
+        <v>10.93704167187675</v>
       </c>
       <c r="M2">
-        <v>9.820797820013071</v>
+        <v>16.91737232680621</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.32922713587694</v>
+        <v>16.70078193465917</v>
       </c>
       <c r="C3">
-        <v>12.45205484060691</v>
+        <v>9.458363436111936</v>
       </c>
       <c r="D3">
-        <v>6.364780323778082</v>
+        <v>6.004776261190005</v>
       </c>
       <c r="E3">
-        <v>4.749779630533329</v>
+        <v>8.507495016302629</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.187639650260906</v>
+        <v>3.81626750867578</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>62.93077242332005</v>
+        <v>53.79127310764357</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.52039030604581</v>
+        <v>16.35015922456111</v>
       </c>
       <c r="L3">
-        <v>7.146262220291917</v>
+        <v>10.935289268576</v>
       </c>
       <c r="M3">
-        <v>9.701666610028301</v>
+        <v>16.9717001449154</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.05742859302223</v>
+        <v>16.75264279552927</v>
       </c>
       <c r="C4">
-        <v>11.89997316265717</v>
+        <v>9.257719215797957</v>
       </c>
       <c r="D4">
-        <v>6.101315510883643</v>
+        <v>5.945031442731163</v>
       </c>
       <c r="E4">
-        <v>4.768601136940772</v>
+        <v>8.517138529652305</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195917032425043</v>
+        <v>3.8189595245089</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60.71856439074632</v>
+        <v>52.98959598230898</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.20797102682966</v>
+        <v>16.35687725105457</v>
       </c>
       <c r="L4">
-        <v>7.073072113259886</v>
+        <v>10.93561318737849</v>
       </c>
       <c r="M4">
-        <v>9.639044855890621</v>
+        <v>17.00900105689615</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.950579626781732</v>
+        <v>16.77562722310727</v>
       </c>
       <c r="C5">
-        <v>11.66997679549897</v>
+        <v>9.175112776627719</v>
       </c>
       <c r="D5">
-        <v>5.992277009824068</v>
+        <v>5.921002782677073</v>
       </c>
       <c r="E5">
-        <v>4.776507656386118</v>
+        <v>8.521204909018476</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.19932617743646</v>
+        <v>3.8200885569249</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>59.8012085612562</v>
+        <v>52.65867351075194</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.08245966075837</v>
+        <v>16.36105621741917</v>
       </c>
       <c r="L5">
-        <v>7.043962089153622</v>
+        <v>10.93609755660635</v>
       </c>
       <c r="M5">
-        <v>9.616069104348199</v>
+        <v>17.02519093983359</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.933074864293543</v>
+        <v>16.77955514451391</v>
       </c>
       <c r="C6">
-        <v>11.63148422057983</v>
+        <v>9.161348903287642</v>
       </c>
       <c r="D6">
-        <v>5.974072151019177</v>
+        <v>5.917032980627106</v>
       </c>
       <c r="E6">
-        <v>4.777834823986159</v>
+        <v>8.5218883893757</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.199894566724956</v>
+        <v>3.820277969563501</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>59.64793285285852</v>
+        <v>52.6034772364025</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.0617303287043</v>
+        <v>16.36183705822713</v>
       </c>
       <c r="L6">
-        <v>7.039171279184655</v>
+        <v>10.93619927635145</v>
       </c>
       <c r="M6">
-        <v>9.612404592729661</v>
+        <v>17.02793895423243</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.05597170000949</v>
+        <v>16.75294529645658</v>
       </c>
       <c r="C7">
-        <v>11.89689162118357</v>
+        <v>9.256608399302884</v>
       </c>
       <c r="D7">
-        <v>6.099851671680605</v>
+        <v>5.94470605418711</v>
       </c>
       <c r="E7">
-        <v>4.768706808793121</v>
+        <v>8.517192816721849</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.195962857633261</v>
+        <v>3.818974621229382</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.70625647377658</v>
+        <v>52.98514978872079</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.20627091217633</v>
+        <v>16.35692777983877</v>
       </c>
       <c r="L7">
-        <v>7.072676643157304</v>
+        <v>10.93561829262587</v>
       </c>
       <c r="M7">
-        <v>9.638724835680275</v>
+        <v>17.00921539601355</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.63252192889621</v>
+        <v>16.65180563354584</v>
       </c>
       <c r="C8">
-        <v>13.02397001508781</v>
+        <v>9.6692452782294</v>
       </c>
       <c r="D8">
-        <v>6.659032384184801</v>
+        <v>6.069524313733822</v>
       </c>
       <c r="E8">
-        <v>4.730503935986103</v>
+        <v>8.497670092885194</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.178917285318749</v>
+        <v>3.813503913509551</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>65.23661437840737</v>
+        <v>54.63144689832803</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.85968596627884</v>
+        <v>16.34792747776466</v>
       </c>
       <c r="L8">
-        <v>7.226842862086628</v>
+        <v>10.93614713138774</v>
       </c>
       <c r="M8">
-        <v>9.777473942234955</v>
+        <v>16.93528483482203</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07723087646283</v>
+        <v>16.51286294071211</v>
       </c>
       <c r="C9">
-        <v>15.07702748069802</v>
+        <v>10.44317177379279</v>
       </c>
       <c r="D9">
-        <v>7.816370437975285</v>
+        <v>6.321844260104498</v>
       </c>
       <c r="E9">
-        <v>4.663070986573458</v>
+        <v>8.463662340026398</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.146247633463028</v>
+        <v>3.803775248947872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.61561984425551</v>
+        <v>57.70518712247868</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.22680460135216</v>
+        <v>16.37597404829319</v>
       </c>
       <c r="L9">
-        <v>7.552841673150176</v>
+        <v>10.94827394658421</v>
       </c>
       <c r="M9">
-        <v>10.1378864116105</v>
+        <v>16.82169037330009</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.44609197049936</v>
+        <v>16.44772449501168</v>
       </c>
       <c r="C10">
-        <v>16.49509555449539</v>
+        <v>10.98449139409111</v>
       </c>
       <c r="D10">
-        <v>8.606234654101325</v>
+        <v>6.509889149643747</v>
       </c>
       <c r="E10">
-        <v>4.618153229394206</v>
+        <v>8.441256828023491</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.122327883802965</v>
+        <v>3.797227868882966</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>79.47954657936471</v>
+        <v>59.85443427847306</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.6542123298349</v>
+        <v>16.42450586407366</v>
       </c>
       <c r="L10">
-        <v>7.80813255834309</v>
+        <v>10.96391682043175</v>
       </c>
       <c r="M10">
-        <v>10.46366831261852</v>
+        <v>16.75749002073825</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.06490204756701</v>
+        <v>16.4262546371523</v>
       </c>
       <c r="C11">
-        <v>17.12270127819628</v>
+        <v>11.22379515934027</v>
       </c>
       <c r="D11">
-        <v>8.954168865544485</v>
+        <v>6.595611806187302</v>
       </c>
       <c r="E11">
-        <v>4.598753571558071</v>
+        <v>8.431618493958249</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.111362021285634</v>
+        <v>3.794377709937826</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>82.09126045657314</v>
+        <v>60.80573380545893</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.28902271611825</v>
+        <v>16.45263701940378</v>
       </c>
       <c r="L11">
-        <v>7.928128478879614</v>
+        <v>10.972487388759</v>
       </c>
       <c r="M11">
-        <v>10.62690685541249</v>
+        <v>16.73249044716023</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.29904028454972</v>
+        <v>16.41930851005509</v>
       </c>
       <c r="C12">
-        <v>17.35808462578602</v>
+        <v>11.31334073809293</v>
       </c>
       <c r="D12">
-        <v>9.084455954967453</v>
+        <v>6.628066163544832</v>
       </c>
       <c r="E12">
-        <v>4.591560280568948</v>
+        <v>8.428047940159649</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.107187089376249</v>
+        <v>3.793316725387604</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>83.0731369600108</v>
+        <v>61.1619604413298</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.52768873707395</v>
+        <v>16.46415703444329</v>
       </c>
       <c r="L12">
-        <v>7.974171863769024</v>
+        <v>10.97594109931073</v>
       </c>
       <c r="M12">
-        <v>10.69105827368034</v>
+        <v>16.72363041413988</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.2486160622529</v>
+        <v>16.42075166728115</v>
       </c>
       <c r="C13">
-        <v>17.30748750881773</v>
+        <v>11.29410434400966</v>
       </c>
       <c r="D13">
-        <v>9.056458622768213</v>
+        <v>6.621077357005865</v>
       </c>
       <c r="E13">
-        <v>4.593102596096498</v>
+        <v>8.428813403355148</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.108087413887776</v>
+        <v>3.793544415291839</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>82.86197189849597</v>
+        <v>61.08542220782647</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.47635780064902</v>
+        <v>16.46163748105782</v>
       </c>
       <c r="L13">
-        <v>7.964227846175177</v>
+        <v>10.97518803634704</v>
       </c>
       <c r="M13">
-        <v>10.67713511346609</v>
+        <v>16.72551156381745</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.08416613401836</v>
+        <v>16.42565938915419</v>
       </c>
       <c r="C14">
-        <v>17.14211048866321</v>
+        <v>11.23118404224494</v>
       </c>
       <c r="D14">
-        <v>8.964916025459303</v>
+        <v>6.59828216911028</v>
       </c>
       <c r="E14">
-        <v>4.598158679522866</v>
+        <v>8.431323155838429</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.11101906094215</v>
+        <v>3.79429005595236</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>82.17217667906795</v>
+        <v>60.83512230690163</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.30869010271701</v>
+        <v>16.45356741751032</v>
       </c>
       <c r="L14">
-        <v>7.931904077560474</v>
+        <v>10.97276736029436</v>
       </c>
       <c r="M14">
-        <v>10.63213670293954</v>
+        <v>16.73174935530416</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.9834233867182</v>
+        <v>16.42881999912113</v>
       </c>
       <c r="C15">
-        <v>17.04052371162871</v>
+        <v>11.19250165536275</v>
       </c>
       <c r="D15">
-        <v>8.908657805000294</v>
+        <v>6.584317597459595</v>
       </c>
       <c r="E15">
-        <v>4.601275749311327</v>
+        <v>8.432870763810145</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.112811528880556</v>
+        <v>3.794749162654564</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>81.74876080958377</v>
+        <v>60.68127816438908</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.20577644389197</v>
+        <v>16.44873711034351</v>
       </c>
       <c r="L15">
-        <v>7.912185084684737</v>
+        <v>10.97131171323366</v>
       </c>
       <c r="M15">
-        <v>10.60488381858757</v>
+        <v>16.73564925920904</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.40560228578065</v>
+        <v>16.44929274737662</v>
       </c>
       <c r="C16">
-        <v>16.4537472122258</v>
+        <v>10.96870597969176</v>
       </c>
       <c r="D16">
-        <v>8.583281156143963</v>
+        <v>6.504287762923555</v>
       </c>
       <c r="E16">
-        <v>4.619442174154</v>
+        <v>8.44189783062917</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.123041990332051</v>
+        <v>3.797416702999024</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>79.30781322625313</v>
+        <v>59.7917146982764</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.61246345712236</v>
+        <v>16.42278900256061</v>
       </c>
       <c r="L16">
-        <v>7.800372091871951</v>
+        <v>10.96338590503625</v>
       </c>
       <c r="M16">
-        <v>10.45331714778069</v>
+        <v>16.75920860186019</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.0503637084826</v>
+        <v>16.46395025622564</v>
       </c>
       <c r="C17">
-        <v>16.08945231009108</v>
+        <v>10.82957973523357</v>
       </c>
       <c r="D17">
-        <v>8.380870473463899</v>
+        <v>6.455214459622743</v>
       </c>
       <c r="E17">
-        <v>4.630854009491606</v>
+        <v>8.447577264630374</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.129289618965502</v>
+        <v>3.79908590974631</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>77.79663910752916</v>
+        <v>59.23907657807676</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.2450047789978</v>
+        <v>16.40841934669628</v>
       </c>
       <c r="L17">
-        <v>7.732798099185521</v>
+        <v>10.95889558932718</v>
       </c>
       <c r="M17">
-        <v>10.36430301274473</v>
+        <v>16.77474009209412</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.84564621082025</v>
+        <v>16.47314854688619</v>
       </c>
       <c r="C18">
-        <v>15.87825680725533</v>
+        <v>10.74890818829653</v>
       </c>
       <c r="D18">
-        <v>8.263366708762945</v>
+        <v>6.427007646443883</v>
       </c>
       <c r="E18">
-        <v>4.637514749187311</v>
+        <v>8.450896097794763</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.132875826346891</v>
+        <v>3.80005807557874</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>76.92212949925111</v>
+        <v>58.91874011761752</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.03225961645833</v>
+        <v>16.40072438294478</v>
       </c>
       <c r="L18">
-        <v>7.694291360580061</v>
+        <v>10.95644985062251</v>
       </c>
       <c r="M18">
-        <v>10.31450813533999</v>
+        <v>16.78406912102259</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.77625506792489</v>
+        <v>16.47639444844554</v>
       </c>
       <c r="C19">
-        <v>15.80645777256818</v>
+        <v>10.72148500504311</v>
       </c>
       <c r="D19">
-        <v>8.223391319766314</v>
+        <v>6.417461561132081</v>
       </c>
       <c r="E19">
-        <v>4.639786507169142</v>
+        <v>8.452028770578634</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.134089091151374</v>
+        <v>3.800389313545399</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.62509803686955</v>
+        <v>58.80986162436667</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.95997849331584</v>
+        <v>16.39821698833748</v>
       </c>
       <c r="L19">
-        <v>7.681314215600709</v>
+        <v>10.95564531742159</v>
       </c>
       <c r="M19">
-        <v>10.29788467255614</v>
+        <v>16.78729567301348</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.0882178363103</v>
+        <v>16.46231040945672</v>
       </c>
       <c r="C20">
-        <v>16.12840267548281</v>
+        <v>10.84445778382145</v>
       </c>
       <c r="D20">
-        <v>8.402528333536321</v>
+        <v>6.460436686844264</v>
       </c>
       <c r="E20">
-        <v>4.629629139663951</v>
+        <v>8.446967282371613</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.12862536856336</v>
+        <v>3.798906970365751</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>77.95805126438616</v>
+        <v>59.29816345905841</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.28426307885035</v>
+        <v>16.40989003870202</v>
       </c>
       <c r="L20">
-        <v>7.739953896228981</v>
+        <v>10.95935942146288</v>
       </c>
       <c r="M20">
-        <v>10.37363227031048</v>
+        <v>16.77304576730022</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.13247085818608</v>
+        <v>16.42418565981871</v>
       </c>
       <c r="C21">
-        <v>17.19074536279214</v>
+        <v>11.24969495056962</v>
       </c>
       <c r="D21">
-        <v>8.991842673667289</v>
+        <v>6.604978113152458</v>
       </c>
       <c r="E21">
-        <v>4.596669392042031</v>
+        <v>8.430583832367464</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.110158663371032</v>
+        <v>3.794070547414761</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>82.37497107647599</v>
+        <v>60.90875189279888</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.35798167228893</v>
+        <v>16.45591428250778</v>
       </c>
       <c r="L21">
-        <v>7.941381523229746</v>
+        <v>10.97347272847298</v>
       </c>
       <c r="M21">
-        <v>10.64528888232291</v>
+        <v>16.72990068180856</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.81407572771059</v>
+        <v>16.40617456081885</v>
       </c>
       <c r="C22">
-        <v>17.87735043466976</v>
+        <v>11.50825448858163</v>
       </c>
       <c r="D22">
-        <v>9.368535380629217</v>
+        <v>6.699389377535915</v>
       </c>
       <c r="E22">
-        <v>4.576023026108472</v>
+        <v>8.420338189136221</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.097952939953527</v>
+        <v>3.79101631928723</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>85.2207796034366</v>
+        <v>61.93790543688933</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.04989852181646</v>
+        <v>16.49104704697355</v>
       </c>
       <c r="L22">
-        <v>8.076576488251181</v>
+        <v>10.98390975575681</v>
       </c>
       <c r="M22">
-        <v>10.97461015254567</v>
+        <v>16.70524041229416</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.45022309254497</v>
+        <v>16.41515238184301</v>
       </c>
       <c r="C23">
-        <v>17.50947436807092</v>
+        <v>11.37085415312274</v>
       </c>
       <c r="D23">
-        <v>9.168198436191313</v>
+        <v>6.649015881287709</v>
       </c>
       <c r="E23">
-        <v>4.586958632940102</v>
+        <v>8.425764349225497</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.104483733983132</v>
+        <v>3.792636704858952</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>83.70529250193979</v>
+        <v>61.39083923388299</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.68136854230198</v>
+        <v>16.47183502902163</v>
       </c>
       <c r="L23">
-        <v>8.004076028208845</v>
+        <v>10.97822865213833</v>
       </c>
       <c r="M23">
-        <v>10.73315142460309</v>
+        <v>16.71807773834923</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.07110552571423</v>
+        <v>16.46304938194784</v>
       </c>
       <c r="C24">
-        <v>16.11079870653688</v>
+        <v>10.83773354907076</v>
       </c>
       <c r="D24">
-        <v>8.392740363066421</v>
+        <v>6.458075696466883</v>
       </c>
       <c r="E24">
-        <v>4.630182592359408</v>
+        <v>8.447242888209756</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.128925692984427</v>
+        <v>3.798987829862948</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>77.88509469538869</v>
+        <v>59.27145841656948</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.26651906375296</v>
+        <v>16.4092233745899</v>
       </c>
       <c r="L24">
-        <v>7.736717697160793</v>
+        <v>10.95914929988621</v>
       </c>
       <c r="M24">
-        <v>10.36941022565944</v>
+        <v>16.77381052650479</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.5677344688831</v>
+        <v>16.54401341675182</v>
       </c>
       <c r="C25">
-        <v>14.53803735678091</v>
+        <v>10.23821409860382</v>
       </c>
       <c r="D25">
-        <v>7.51441769341689</v>
+        <v>6.252977893615326</v>
       </c>
       <c r="E25">
-        <v>4.680508184504599</v>
+        <v>8.472407332522153</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.155040520139857</v>
+        <v>3.806301048491604</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>71.40201859819658</v>
+        <v>56.8918049598784</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.82699673074926</v>
+        <v>16.36348266965691</v>
       </c>
       <c r="L25">
-        <v>7.461997057965196</v>
+        <v>10.9438084751713</v>
       </c>
       <c r="M25">
-        <v>10.0302262810645</v>
+        <v>16.84904759529491</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.62839213472384</v>
+        <v>10.79698226048836</v>
       </c>
       <c r="C2">
-        <v>9.778901425698864</v>
+        <v>13.31860889673341</v>
       </c>
       <c r="D2">
-        <v>6.103927342922541</v>
+        <v>6.826473994607881</v>
       </c>
       <c r="E2">
-        <v>8.492670814927186</v>
+        <v>4.720658233193008</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.812089592183115</v>
+        <v>2.174362272650748</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>55.06763347094022</v>
+        <v>66.42976777867095</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.34857585258439</v>
+        <v>12.04034077729599</v>
       </c>
       <c r="L2">
-        <v>10.93704167187675</v>
+        <v>7.270177797719758</v>
       </c>
       <c r="M2">
-        <v>16.91737232680621</v>
+        <v>9.820797820013032</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.70078193465917</v>
+        <v>10.32922713587693</v>
       </c>
       <c r="C3">
-        <v>9.458363436111936</v>
+        <v>12.45205484060683</v>
       </c>
       <c r="D3">
-        <v>6.004776261190005</v>
+        <v>6.36478032377805</v>
       </c>
       <c r="E3">
-        <v>8.507495016302629</v>
+        <v>4.749779630533257</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.81626750867578</v>
+        <v>2.187639650260781</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>53.79127310764357</v>
+        <v>62.93077242331955</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.35015922456111</v>
+        <v>11.52039030604578</v>
       </c>
       <c r="L3">
-        <v>10.935289268576</v>
+        <v>7.14626222029191</v>
       </c>
       <c r="M3">
-        <v>16.9717001449154</v>
+        <v>9.701666610028264</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.75264279552927</v>
+        <v>10.0574285930222</v>
       </c>
       <c r="C4">
-        <v>9.257719215797957</v>
+        <v>11.89997316265717</v>
       </c>
       <c r="D4">
-        <v>5.945031442731163</v>
+        <v>6.101315510883618</v>
       </c>
       <c r="E4">
-        <v>8.517138529652305</v>
+        <v>4.76860113694064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.8189595245089</v>
+        <v>2.195917032424913</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>52.98959598230898</v>
+        <v>60.71856439074653</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.35687725105457</v>
+        <v>11.20797102682968</v>
       </c>
       <c r="L4">
-        <v>10.93561318737849</v>
+        <v>7.073072113259834</v>
       </c>
       <c r="M4">
-        <v>17.00900105689615</v>
+        <v>9.639044855890567</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.77562722310727</v>
+        <v>9.95057962678178</v>
       </c>
       <c r="C5">
-        <v>9.175112776627719</v>
+        <v>11.66997679549897</v>
       </c>
       <c r="D5">
-        <v>5.921002782677073</v>
+        <v>5.992277009824038</v>
       </c>
       <c r="E5">
-        <v>8.521204909018476</v>
+        <v>4.776507656385925</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.8200885569249</v>
+        <v>2.199326177436205</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>52.65867351075194</v>
+        <v>59.80120856125593</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.36105621741917</v>
+        <v>11.08245966075842</v>
       </c>
       <c r="L5">
-        <v>10.93609755660635</v>
+        <v>7.043962089153615</v>
       </c>
       <c r="M5">
-        <v>17.02519093983359</v>
+        <v>9.616069104348203</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.77955514451391</v>
+        <v>9.93307486429353</v>
       </c>
       <c r="C6">
-        <v>9.161348903287642</v>
+        <v>11.63148422057985</v>
       </c>
       <c r="D6">
-        <v>5.917032980627106</v>
+        <v>5.974072151019191</v>
       </c>
       <c r="E6">
-        <v>8.5218883893757</v>
+        <v>4.777834823986031</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.820277969563501</v>
+        <v>2.199894566724835</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>52.6034772364025</v>
+        <v>59.64793285285903</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.36183705822713</v>
+        <v>11.0617303287043</v>
       </c>
       <c r="L6">
-        <v>10.93619927635145</v>
+        <v>7.039171279184601</v>
       </c>
       <c r="M6">
-        <v>17.02793895423243</v>
+        <v>9.612404592729643</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.75294529645658</v>
+        <v>10.05597170000944</v>
       </c>
       <c r="C7">
-        <v>9.256608399302884</v>
+        <v>11.89689162118358</v>
       </c>
       <c r="D7">
-        <v>5.94470605418711</v>
+        <v>6.099851671680605</v>
       </c>
       <c r="E7">
-        <v>8.517192816721849</v>
+        <v>4.768706808793318</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.818974621229382</v>
+        <v>2.195962857633646</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>52.98514978872079</v>
+        <v>60.70625647377646</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.35692777983877</v>
+        <v>11.20627091217626</v>
       </c>
       <c r="L7">
-        <v>10.93561829262587</v>
+        <v>7.072676643157344</v>
       </c>
       <c r="M7">
-        <v>17.00921539601355</v>
+        <v>9.638724835680289</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.65180563354584</v>
+        <v>10.63252192889632</v>
       </c>
       <c r="C8">
-        <v>9.6692452782294</v>
+        <v>13.02397001508777</v>
       </c>
       <c r="D8">
-        <v>6.069524313733822</v>
+        <v>6.659032384184906</v>
       </c>
       <c r="E8">
-        <v>8.497670092885194</v>
+        <v>4.730503935985972</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.813503913509551</v>
+        <v>2.178917285318625</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.63144689832803</v>
+        <v>65.23661437840705</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.34792747776466</v>
+        <v>11.85968596627887</v>
       </c>
       <c r="L8">
-        <v>10.93614713138774</v>
+        <v>7.226842862086603</v>
       </c>
       <c r="M8">
-        <v>16.93528483482203</v>
+        <v>9.777473942234959</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.51286294071211</v>
+        <v>12.07723087646286</v>
       </c>
       <c r="C9">
-        <v>10.44317177379279</v>
+        <v>15.07702748069831</v>
       </c>
       <c r="D9">
-        <v>6.321844260104498</v>
+        <v>7.816370437975434</v>
       </c>
       <c r="E9">
-        <v>8.463662340026398</v>
+        <v>4.663070986573262</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.803775248947872</v>
+        <v>2.146247633462891</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>57.70518712247868</v>
+        <v>73.6156198442566</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.37597404829319</v>
+        <v>13.22680460135227</v>
       </c>
       <c r="L9">
-        <v>10.94827394658421</v>
+        <v>7.552841673150159</v>
       </c>
       <c r="M9">
-        <v>16.82169037330009</v>
+        <v>10.13788641161041</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.44772449501168</v>
+        <v>13.44609197049941</v>
       </c>
       <c r="C10">
-        <v>10.98449139409111</v>
+        <v>16.49509555449532</v>
       </c>
       <c r="D10">
-        <v>6.509889149643747</v>
+        <v>8.606234654101247</v>
       </c>
       <c r="E10">
-        <v>8.441256828023491</v>
+        <v>4.618153229394133</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.797227868882966</v>
+        <v>2.122327883803114</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>59.85443427847306</v>
+        <v>79.47954657936511</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.42450586407366</v>
+        <v>14.65421232983488</v>
       </c>
       <c r="L10">
-        <v>10.96391682043175</v>
+        <v>7.808132558343059</v>
       </c>
       <c r="M10">
-        <v>16.75749002073825</v>
+        <v>10.46366831261851</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.4262546371523</v>
+        <v>14.064902047567</v>
       </c>
       <c r="C11">
-        <v>11.22379515934027</v>
+        <v>17.12270127819633</v>
       </c>
       <c r="D11">
-        <v>6.595611806187302</v>
+        <v>8.954168865544553</v>
       </c>
       <c r="E11">
-        <v>8.431618493958249</v>
+        <v>4.598753571558152</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.794377709937826</v>
+        <v>2.111362021285896</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>60.80573380545893</v>
+        <v>82.09126045657329</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.45263701940378</v>
+        <v>15.28902271611828</v>
       </c>
       <c r="L11">
-        <v>10.972487388759</v>
+        <v>7.928128478879637</v>
       </c>
       <c r="M11">
-        <v>16.73249044716023</v>
+        <v>10.62690685541248</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41930851005509</v>
+        <v>14.29904028454965</v>
       </c>
       <c r="C12">
-        <v>11.31334073809293</v>
+        <v>17.35808462578615</v>
       </c>
       <c r="D12">
-        <v>6.628066163544832</v>
+        <v>9.084455954967494</v>
       </c>
       <c r="E12">
-        <v>8.428047940159649</v>
+        <v>4.591560280569039</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.793316725387604</v>
+        <v>2.107187089376485</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>61.1619604413298</v>
+        <v>83.07313696001133</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.46415703444329</v>
+        <v>15.52768873707399</v>
       </c>
       <c r="L12">
-        <v>10.97594109931073</v>
+        <v>7.974171863768993</v>
       </c>
       <c r="M12">
-        <v>16.72363041413988</v>
+        <v>10.69105827368032</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.42075166728115</v>
+        <v>14.24861606225293</v>
       </c>
       <c r="C13">
-        <v>11.29410434400966</v>
+        <v>17.3074875088178</v>
       </c>
       <c r="D13">
-        <v>6.621077357005865</v>
+        <v>9.05645862276821</v>
       </c>
       <c r="E13">
-        <v>8.428813403355148</v>
+        <v>4.5931025960967</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.793544415291839</v>
+        <v>2.108087413887763</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>61.08542220782647</v>
+        <v>82.86197189849604</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.46163748105782</v>
+        <v>15.47635780064905</v>
       </c>
       <c r="L13">
-        <v>10.97518803634704</v>
+        <v>7.964227846175202</v>
       </c>
       <c r="M13">
-        <v>16.72551156381745</v>
+        <v>10.67713511346609</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.42565938915419</v>
+        <v>14.08416613401837</v>
       </c>
       <c r="C14">
-        <v>11.23118404224494</v>
+        <v>17.14211048866334</v>
       </c>
       <c r="D14">
-        <v>6.59828216911028</v>
+        <v>8.964916025459605</v>
       </c>
       <c r="E14">
-        <v>8.431323155838429</v>
+        <v>4.598158679522935</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.79429005595236</v>
+        <v>2.111019060941789</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>60.83512230690163</v>
+        <v>82.17217667906888</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.45356741751032</v>
+        <v>15.30869010271703</v>
       </c>
       <c r="L14">
-        <v>10.97276736029436</v>
+        <v>7.931904077560518</v>
       </c>
       <c r="M14">
-        <v>16.73174935530416</v>
+        <v>10.63213670293954</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42881999912113</v>
+        <v>13.98342338671818</v>
       </c>
       <c r="C15">
-        <v>11.19250165536275</v>
+        <v>17.0405237116288</v>
       </c>
       <c r="D15">
-        <v>6.584317597459595</v>
+        <v>8.9086578050002</v>
       </c>
       <c r="E15">
-        <v>8.432870763810145</v>
+        <v>4.601275749311334</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.794749162654564</v>
+        <v>2.112811528880644</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>60.68127816438908</v>
+        <v>81.74876080958381</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.44873711034351</v>
+        <v>15.20577644389203</v>
       </c>
       <c r="L15">
-        <v>10.97131171323366</v>
+        <v>7.912185084684734</v>
       </c>
       <c r="M15">
-        <v>16.73564925920904</v>
+        <v>10.60488381858756</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.44929274737662</v>
+        <v>13.40560228578068</v>
       </c>
       <c r="C16">
-        <v>10.96870597969176</v>
+        <v>16.45374721222557</v>
       </c>
       <c r="D16">
-        <v>6.504287762923555</v>
+        <v>8.583281156143883</v>
       </c>
       <c r="E16">
-        <v>8.44189783062917</v>
+        <v>4.619442174153815</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.797416702999024</v>
+        <v>2.123041990332212</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>59.7917146982764</v>
+        <v>79.30781322625245</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.42278900256061</v>
+        <v>14.61246345712224</v>
       </c>
       <c r="L16">
-        <v>10.96338590503625</v>
+        <v>7.800372091871925</v>
       </c>
       <c r="M16">
-        <v>16.75920860186019</v>
+        <v>10.45331714778075</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.46395025622564</v>
+        <v>13.05036370848265</v>
       </c>
       <c r="C17">
-        <v>10.82957973523357</v>
+        <v>16.08945231009072</v>
       </c>
       <c r="D17">
-        <v>6.455214459622743</v>
+        <v>8.380870473463862</v>
       </c>
       <c r="E17">
-        <v>8.447577264630374</v>
+        <v>4.630854009491619</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.79908590974631</v>
+        <v>2.129289618965388</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>59.23907657807676</v>
+        <v>77.79663910752829</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.40841934669628</v>
+        <v>14.24500477899773</v>
       </c>
       <c r="L17">
-        <v>10.95889558932718</v>
+        <v>7.732798099185549</v>
       </c>
       <c r="M17">
-        <v>16.77474009209412</v>
+        <v>10.36430301274477</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.47314854688619</v>
+        <v>12.84564621082025</v>
       </c>
       <c r="C18">
-        <v>10.74890818829653</v>
+        <v>15.87825680725512</v>
       </c>
       <c r="D18">
-        <v>6.427007646443883</v>
+        <v>8.263366708762957</v>
       </c>
       <c r="E18">
-        <v>8.450896097794763</v>
+        <v>4.637514749187244</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.80005807557874</v>
+        <v>2.132875826346891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>58.91874011761752</v>
+        <v>76.92212949925025</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.40072438294478</v>
+        <v>14.03225961645826</v>
       </c>
       <c r="L18">
-        <v>10.95644985062251</v>
+        <v>7.694291360580017</v>
       </c>
       <c r="M18">
-        <v>16.78406912102259</v>
+        <v>10.31450813534001</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.47639444844554</v>
+        <v>12.77625506792488</v>
       </c>
       <c r="C19">
-        <v>10.72148500504311</v>
+        <v>15.80645777256792</v>
       </c>
       <c r="D19">
-        <v>6.417461561132081</v>
+        <v>8.22339131976633</v>
       </c>
       <c r="E19">
-        <v>8.452028770578634</v>
+        <v>4.639786507169194</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.800389313545399</v>
+        <v>2.134089091151219</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>58.80986162436667</v>
+        <v>76.62509803686801</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.39821698833748</v>
+        <v>13.95997849331577</v>
       </c>
       <c r="L19">
-        <v>10.95564531742159</v>
+        <v>7.681314215600622</v>
       </c>
       <c r="M19">
-        <v>16.78729567301348</v>
+        <v>10.29788467255622</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.46231040945672</v>
+        <v>13.08821783631033</v>
       </c>
       <c r="C20">
-        <v>10.84445778382145</v>
+        <v>16.12840267548284</v>
       </c>
       <c r="D20">
-        <v>6.460436686844264</v>
+        <v>8.402528333536308</v>
       </c>
       <c r="E20">
-        <v>8.446967282371613</v>
+        <v>4.629629139664089</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.798906970365751</v>
+        <v>2.128625368563216</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>59.29816345905841</v>
+        <v>77.95805126438589</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.40989003870202</v>
+        <v>14.2842630788504</v>
       </c>
       <c r="L20">
-        <v>10.95935942146288</v>
+        <v>7.739953896229021</v>
       </c>
       <c r="M20">
-        <v>16.77304576730022</v>
+        <v>10.37363227031057</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.42418565981871</v>
+        <v>14.13247085818609</v>
       </c>
       <c r="C21">
-        <v>11.24969495056962</v>
+        <v>17.19074536279201</v>
       </c>
       <c r="D21">
-        <v>6.604978113152458</v>
+        <v>8.991842673667344</v>
       </c>
       <c r="E21">
-        <v>8.430583832367464</v>
+        <v>4.596669392042059</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.794070547414761</v>
+        <v>2.110158663370919</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>60.90875189279888</v>
+        <v>82.37497107647607</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.45591428250778</v>
+        <v>15.3579816722889</v>
       </c>
       <c r="L21">
-        <v>10.97347272847298</v>
+        <v>7.941381523229754</v>
       </c>
       <c r="M21">
-        <v>16.72990068180856</v>
+        <v>10.64528888232294</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.40617456081885</v>
+        <v>14.81407572771072</v>
       </c>
       <c r="C22">
-        <v>11.50825448858163</v>
+        <v>17.87735043466979</v>
       </c>
       <c r="D22">
-        <v>6.699389377535915</v>
+        <v>9.368535380629105</v>
       </c>
       <c r="E22">
-        <v>8.420338189136221</v>
+        <v>4.576023026108471</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.79101631928723</v>
+        <v>2.097952939953487</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>61.93790543688933</v>
+        <v>85.22077960343773</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.49104704697355</v>
+        <v>16.04989852181649</v>
       </c>
       <c r="L22">
-        <v>10.98390975575681</v>
+        <v>8.076576488251201</v>
       </c>
       <c r="M22">
-        <v>16.70524041229416</v>
+        <v>10.9746101525457</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.41515238184301</v>
+        <v>14.45022309254501</v>
       </c>
       <c r="C23">
-        <v>11.37085415312274</v>
+        <v>17.50947436807092</v>
       </c>
       <c r="D23">
-        <v>6.649015881287709</v>
+        <v>9.168198436191382</v>
       </c>
       <c r="E23">
-        <v>8.425764349225497</v>
+        <v>4.586958632940041</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.792636704858952</v>
+        <v>2.104483733983368</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>61.39083923388299</v>
+        <v>83.70529250194011</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.47183502902163</v>
+        <v>15.68136854230208</v>
       </c>
       <c r="L23">
-        <v>10.97822865213833</v>
+        <v>8.004076028208871</v>
       </c>
       <c r="M23">
-        <v>16.71807773834923</v>
+        <v>10.73315142460308</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.46304938194784</v>
+        <v>13.07110552571419</v>
       </c>
       <c r="C24">
-        <v>10.83773354907076</v>
+        <v>16.11079870653688</v>
       </c>
       <c r="D24">
-        <v>6.458075696466883</v>
+        <v>8.392740363066473</v>
       </c>
       <c r="E24">
-        <v>8.447242888209756</v>
+        <v>4.630182592359454</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.798987829862948</v>
+        <v>2.128925692984541</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>59.27145841656948</v>
+        <v>77.88509469538852</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.4092233745899</v>
+        <v>14.266519063753</v>
       </c>
       <c r="L24">
-        <v>10.95914929988621</v>
+        <v>7.736717697160719</v>
       </c>
       <c r="M24">
-        <v>16.77381052650479</v>
+        <v>10.36941022565945</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.54401341675182</v>
+        <v>11.56773446888304</v>
       </c>
       <c r="C25">
-        <v>10.23821409860382</v>
+        <v>14.53803735678084</v>
       </c>
       <c r="D25">
-        <v>6.252977893615326</v>
+        <v>7.514417693416815</v>
       </c>
       <c r="E25">
-        <v>8.472407332522153</v>
+        <v>4.680508184504463</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.806301048491604</v>
+        <v>2.155040520139867</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>56.8918049598784</v>
+        <v>71.40201859819668</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.36348266965691</v>
+        <v>12.82699673074928</v>
       </c>
       <c r="L25">
-        <v>10.9438084751713</v>
+        <v>7.461997057965146</v>
       </c>
       <c r="M25">
-        <v>16.84904759529491</v>
+        <v>10.03022628106451</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.79698226048836</v>
+        <v>18.65972720725723</v>
       </c>
       <c r="C2">
-        <v>13.31860889673341</v>
+        <v>13.4810936333929</v>
       </c>
       <c r="D2">
-        <v>6.826473994607881</v>
+        <v>7.145203405298458</v>
       </c>
       <c r="E2">
-        <v>4.720658233193008</v>
+        <v>8.919695801574509</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.174362272650748</v>
+        <v>24.59455928762912</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.816697109418677</v>
       </c>
       <c r="I2">
-        <v>66.42976777867095</v>
+        <v>2.552408790602303</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.053408784066193</v>
       </c>
       <c r="K2">
-        <v>12.04034077729599</v>
+        <v>14.43860579227075</v>
       </c>
       <c r="L2">
-        <v>7.270177797719758</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.820797820013032</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.857019876041963</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.86538457254789</v>
+      </c>
+      <c r="P2">
+        <v>12.53537795617695</v>
+      </c>
+      <c r="Q2">
+        <v>15.19598188328186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.32922713587693</v>
+        <v>17.42580432852508</v>
       </c>
       <c r="C3">
-        <v>12.45205484060683</v>
+        <v>12.91706936101694</v>
       </c>
       <c r="D3">
-        <v>6.36478032377805</v>
+        <v>6.656153314886049</v>
       </c>
       <c r="E3">
-        <v>4.749779630533257</v>
+        <v>8.834233085840131</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.187639650260781</v>
+        <v>23.75997880558637</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.999913359909738</v>
       </c>
       <c r="I3">
-        <v>62.93077242331955</v>
+        <v>2.539431523313769</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.001179074992411</v>
       </c>
       <c r="K3">
-        <v>11.52039030604578</v>
+        <v>14.45688424281593</v>
       </c>
       <c r="L3">
-        <v>7.14626222029191</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.701666610028264</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.69686592851086</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.3098663626282</v>
+      </c>
+      <c r="P3">
+        <v>12.62144918172853</v>
+      </c>
+      <c r="Q3">
+        <v>14.94980137469774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.0574285930222</v>
+        <v>16.61936266928162</v>
       </c>
       <c r="C4">
-        <v>11.89997316265717</v>
+        <v>12.55876896458279</v>
       </c>
       <c r="D4">
-        <v>6.101315510883618</v>
+        <v>6.338492098831286</v>
       </c>
       <c r="E4">
-        <v>4.76860113694064</v>
+        <v>8.779899113881038</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.195917032424913</v>
+        <v>23.24429973151287</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.116534033280987</v>
       </c>
       <c r="I4">
-        <v>60.71856439074653</v>
+        <v>2.63622275970504</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.972204313698651</v>
       </c>
       <c r="K4">
-        <v>11.20797102682968</v>
+        <v>14.47254071786092</v>
       </c>
       <c r="L4">
-        <v>7.073072113259834</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.639044855890567</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.596687725754114</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.95450712538391</v>
+      </c>
+      <c r="P4">
+        <v>12.67666544746008</v>
+      </c>
+      <c r="Q4">
+        <v>14.80305449021425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.95057962678178</v>
+        <v>16.27360144991147</v>
       </c>
       <c r="C5">
-        <v>11.66997679549897</v>
+        <v>12.41589087166696</v>
       </c>
       <c r="D5">
-        <v>5.992277009824038</v>
+        <v>6.21163873628312</v>
       </c>
       <c r="E5">
-        <v>4.776507656385925</v>
+        <v>8.756549886191364</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.199326177436205</v>
+        <v>23.02163279664215</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.165405626013698</v>
       </c>
       <c r="I5">
-        <v>59.80120856125593</v>
+        <v>2.679849074847419</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.959184346898883</v>
       </c>
       <c r="K5">
-        <v>11.08245966075842</v>
+        <v>14.47532544298348</v>
       </c>
       <c r="L5">
-        <v>7.043962089153615</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.616069104348203</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.555920667741666</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.80502792229605</v>
+      </c>
+      <c r="P5">
+        <v>12.70031935678768</v>
+      </c>
+      <c r="Q5">
+        <v>14.73939171374338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.93307486429353</v>
+        <v>16.20956782422597</v>
       </c>
       <c r="C6">
-        <v>11.63148422057985</v>
+        <v>12.39940977624689</v>
       </c>
       <c r="D6">
-        <v>5.974072151019191</v>
+        <v>6.192496441746803</v>
       </c>
       <c r="E6">
-        <v>4.777834823986031</v>
+        <v>8.751753925327794</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.199894566724835</v>
+        <v>22.96994204734717</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.173946836970436</v>
       </c>
       <c r="I6">
-        <v>59.64793285285903</v>
+        <v>2.69113077398397</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.954645705900207</v>
       </c>
       <c r="K6">
-        <v>11.0617303287043</v>
+        <v>14.47013581202859</v>
       </c>
       <c r="L6">
-        <v>7.039171279184601</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.612404592729643</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.549723549825398</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.77849967217508</v>
+      </c>
+      <c r="P6">
+        <v>12.70497969335962</v>
+      </c>
+      <c r="Q6">
+        <v>14.72276448255289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.05597170000944</v>
+        <v>16.59909507220824</v>
       </c>
       <c r="C7">
-        <v>11.89689162118358</v>
+        <v>12.57686761298575</v>
       </c>
       <c r="D7">
-        <v>6.099851671680605</v>
+        <v>6.336644550347083</v>
       </c>
       <c r="E7">
-        <v>4.768706808793318</v>
+        <v>8.777191925681556</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.195962857633646</v>
+        <v>23.20161873087622</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.118160444300322</v>
       </c>
       <c r="I7">
-        <v>60.70625647377646</v>
+        <v>2.647334029017443</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.965427376277974</v>
       </c>
       <c r="K7">
-        <v>11.20627091217626</v>
+        <v>14.45697441399447</v>
       </c>
       <c r="L7">
-        <v>7.072676643157344</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.638724835680289</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.597765571931669</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.94846112685401</v>
+      </c>
+      <c r="P7">
+        <v>12.6789537037638</v>
+      </c>
+      <c r="Q7">
+        <v>14.78555174023085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.63252192889632</v>
+        <v>18.22526849414043</v>
       </c>
       <c r="C8">
-        <v>13.02397001508777</v>
+        <v>13.31455135011511</v>
       </c>
       <c r="D8">
-        <v>6.659032384184906</v>
+        <v>6.980087563041937</v>
       </c>
       <c r="E8">
-        <v>4.730503935985972</v>
+        <v>8.887593629660193</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.178917285318625</v>
+        <v>24.25729665698176</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.88023100828088</v>
       </c>
       <c r="I8">
-        <v>65.23661437840705</v>
+        <v>2.505972197176206</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.026115025475207</v>
       </c>
       <c r="K8">
-        <v>11.85968596627887</v>
+        <v>14.42340923743084</v>
       </c>
       <c r="L8">
-        <v>7.226842862086603</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.777473942234959</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.804325847376715</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.6718232891612</v>
+      </c>
+      <c r="P8">
+        <v>12.5674638352248</v>
+      </c>
+      <c r="Q8">
+        <v>15.08865220513554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.07723087646286</v>
+        <v>21.05415253861059</v>
       </c>
       <c r="C9">
-        <v>15.07702748069831</v>
+        <v>14.62900594800279</v>
       </c>
       <c r="D9">
-        <v>7.816370437975434</v>
+        <v>8.105273701153939</v>
       </c>
       <c r="E9">
-        <v>4.663070986573262</v>
+        <v>9.093858234397704</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.146247633462891</v>
+        <v>26.35658083311672</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.674159881471003</v>
       </c>
       <c r="I9">
-        <v>73.6156198442566</v>
+        <v>2.852897653819931</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.181740615350908</v>
       </c>
       <c r="K9">
-        <v>13.22680460135227</v>
+        <v>14.42211474889976</v>
       </c>
       <c r="L9">
-        <v>7.552841673150159</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.13788641161041</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.190570938311916</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>12.97836847977424</v>
+      </c>
+      <c r="P9">
+        <v>12.36396520828186</v>
+      </c>
+      <c r="Q9">
+        <v>15.74524884163718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.44609197049941</v>
+        <v>22.85719165330636</v>
       </c>
       <c r="C10">
-        <v>16.49509555449532</v>
+        <v>15.59370870471272</v>
       </c>
       <c r="D10">
-        <v>8.606234654101247</v>
+        <v>8.84985043905556</v>
       </c>
       <c r="E10">
-        <v>4.618153229394133</v>
+        <v>9.206692204630409</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.122327883803114</v>
+        <v>27.68070410652699</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.961354844698202</v>
       </c>
       <c r="I10">
-        <v>79.47954657936511</v>
+        <v>3.092848542471426</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.278290551515088</v>
       </c>
       <c r="K10">
-        <v>14.65421232983488</v>
+        <v>14.37212119905369</v>
       </c>
       <c r="L10">
-        <v>7.808132558343059</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.46366831261851</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.36654670413051</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.7655623365802</v>
+      </c>
+      <c r="P10">
+        <v>12.24240264757709</v>
+      </c>
+      <c r="Q10">
+        <v>16.16424486721046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.064902047567</v>
+        <v>23.28773144166939</v>
       </c>
       <c r="C11">
-        <v>17.12270127819633</v>
+        <v>16.51641148089645</v>
       </c>
       <c r="D11">
-        <v>8.954168865544553</v>
+        <v>9.167683976554558</v>
       </c>
       <c r="E11">
-        <v>4.598753571558152</v>
+        <v>9.179715302135669</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.111362021285896</v>
+        <v>26.81105437805724</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.855715786969109</v>
       </c>
       <c r="I11">
-        <v>82.09126045657329</v>
+        <v>3.166939109024162</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.050713029609479</v>
       </c>
       <c r="K11">
-        <v>15.28902271611828</v>
+        <v>13.76307611966335</v>
       </c>
       <c r="L11">
-        <v>7.928128478879637</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.62690685541248</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.655342547460427</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.30277930676237</v>
+      </c>
+      <c r="P11">
+        <v>12.33689690877933</v>
+      </c>
+      <c r="Q11">
+        <v>15.69490934415391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.29904028454965</v>
+        <v>23.30208445153193</v>
       </c>
       <c r="C12">
-        <v>17.35808462578615</v>
+        <v>17.08447628613149</v>
       </c>
       <c r="D12">
-        <v>9.084455954967494</v>
+        <v>9.284296154905892</v>
       </c>
       <c r="E12">
-        <v>4.591560280569039</v>
+        <v>9.37920671575667</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.107187089376485</v>
+        <v>25.82971008890588</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.133186605497545</v>
       </c>
       <c r="I12">
-        <v>83.07313696001133</v>
+        <v>3.178671462710202</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.842357375338764</v>
       </c>
       <c r="K12">
-        <v>15.52768873707399</v>
+        <v>13.28500055593642</v>
       </c>
       <c r="L12">
-        <v>7.974171863768993</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>10.69105827368032</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.090933054685052</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.74512820818552</v>
+      </c>
+      <c r="P12">
+        <v>12.45675050558455</v>
+      </c>
+      <c r="Q12">
+        <v>15.22168153675008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.24861606225293</v>
+        <v>22.98009433140865</v>
       </c>
       <c r="C13">
-        <v>17.3074875088178</v>
+        <v>17.45134006809507</v>
       </c>
       <c r="D13">
-        <v>9.05645862276821</v>
+        <v>9.256651413725031</v>
       </c>
       <c r="E13">
-        <v>4.5931025960967</v>
+        <v>9.74029184636851</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.108087413887763</v>
+        <v>24.62203239967301</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.469337671380113</v>
       </c>
       <c r="I13">
-        <v>82.86197189849604</v>
+        <v>3.146994998814386</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.624633107800463</v>
       </c>
       <c r="K13">
-        <v>15.47635780064905</v>
+        <v>12.85691648458071</v>
       </c>
       <c r="L13">
-        <v>7.964227846175202</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>10.67713511346609</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.626211256849753</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.06152682912629</v>
+      </c>
+      <c r="P13">
+        <v>12.60127204589848</v>
+      </c>
+      <c r="Q13">
+        <v>14.68515458004106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.08416613401837</v>
+        <v>22.59428352374839</v>
       </c>
       <c r="C14">
-        <v>17.14211048866334</v>
+        <v>17.62727879898897</v>
       </c>
       <c r="D14">
-        <v>8.964916025459605</v>
+        <v>9.171691703237</v>
       </c>
       <c r="E14">
-        <v>4.598158679522935</v>
+        <v>10.08228151795157</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.111019060941789</v>
+        <v>23.65155432725154</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.452315541775973</v>
       </c>
       <c r="I14">
-        <v>82.17217667906888</v>
+        <v>3.106330393621701</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.466321980501506</v>
       </c>
       <c r="K14">
-        <v>15.30869010271703</v>
+        <v>12.58084502950076</v>
       </c>
       <c r="L14">
-        <v>7.931904077560518</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.63213670293954</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.375045315673947</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.51725708946966</v>
+      </c>
+      <c r="P14">
+        <v>12.71459240605512</v>
+      </c>
+      <c r="Q14">
+        <v>14.27446402222418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.98342338671818</v>
+        <v>22.42195460695248</v>
       </c>
       <c r="C15">
-        <v>17.0405237116288</v>
+        <v>17.63355307639419</v>
       </c>
       <c r="D15">
-        <v>8.9086578050002</v>
+        <v>9.119820039985054</v>
       </c>
       <c r="E15">
-        <v>4.601275749311334</v>
+        <v>10.16800388710864</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.112811528880644</v>
+        <v>23.35384787471852</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.690444795941415</v>
       </c>
       <c r="I15">
-        <v>81.74876080958381</v>
+        <v>3.088067110766168</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.424342667054727</v>
       </c>
       <c r="K15">
-        <v>15.20577644389203</v>
+        <v>12.52013011186346</v>
       </c>
       <c r="L15">
-        <v>7.912185084684734</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.60488381858756</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.325405824935625</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.35601815619546</v>
+      </c>
+      <c r="P15">
+        <v>12.74606156668947</v>
+      </c>
+      <c r="Q15">
+        <v>14.15660919190369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.40560228578068</v>
+        <v>21.71896928637797</v>
       </c>
       <c r="C16">
-        <v>16.45374721222557</v>
+        <v>17.19243843783636</v>
       </c>
       <c r="D16">
-        <v>8.583281156143883</v>
+        <v>8.819496260390425</v>
       </c>
       <c r="E16">
-        <v>4.619442174153815</v>
+        <v>10.03631653054668</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.123041990332212</v>
+        <v>22.9412629006908</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.475481571352409</v>
       </c>
       <c r="I16">
-        <v>79.30781322625245</v>
+        <v>2.993890367943495</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.419523254782552</v>
       </c>
       <c r="K16">
-        <v>14.61246345712224</v>
+        <v>12.6231880098577</v>
       </c>
       <c r="L16">
-        <v>7.800372091871925</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.45331714778075</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.33495170540402</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.12357844174273</v>
+      </c>
+      <c r="P16">
+        <v>12.75551863098994</v>
+      </c>
+      <c r="Q16">
+        <v>14.05856177961206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.05036370848265</v>
+        <v>21.38289187296045</v>
       </c>
       <c r="C17">
-        <v>16.08945231009072</v>
+        <v>16.75027071231878</v>
       </c>
       <c r="D17">
-        <v>8.380870473463862</v>
+        <v>8.631483246896344</v>
       </c>
       <c r="E17">
-        <v>4.630854009491619</v>
+        <v>9.734644036718898</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.129289618965388</v>
+        <v>23.16028603653901</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.728748453878743</v>
       </c>
       <c r="I17">
-        <v>77.79663910752829</v>
+        <v>2.943364461910821</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.50100481434824</v>
       </c>
       <c r="K17">
-        <v>14.24500477899773</v>
+        <v>12.84586217911082</v>
       </c>
       <c r="L17">
-        <v>7.732798099185549</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.36430301274477</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.462490013144528</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.24424713322035</v>
+      </c>
+      <c r="P17">
+        <v>12.70434082303961</v>
+      </c>
+      <c r="Q17">
+        <v>14.20663513859794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.84564621082025</v>
+        <v>21.3467574652109</v>
       </c>
       <c r="C18">
-        <v>15.87825680725512</v>
+        <v>16.24945286825818</v>
       </c>
       <c r="D18">
-        <v>8.263366708762957</v>
+        <v>8.522810853432761</v>
       </c>
       <c r="E18">
-        <v>4.637514749187244</v>
+        <v>9.347713459790576</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.132875826346891</v>
+        <v>23.96993225327038</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.456711972479819</v>
       </c>
       <c r="I18">
-        <v>76.92212949925025</v>
+        <v>2.922903347724035</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.668881953042606</v>
       </c>
       <c r="K18">
-        <v>14.03225961645826</v>
+        <v>13.21254489105534</v>
       </c>
       <c r="L18">
-        <v>7.694291360580017</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.31450813534001</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.776161372320172</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.68667748370708</v>
+      </c>
+      <c r="P18">
+        <v>12.59916884862835</v>
+      </c>
+      <c r="Q18">
+        <v>14.59109744102683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.77625506792488</v>
+        <v>21.53232668116147</v>
       </c>
       <c r="C19">
-        <v>15.80645777256792</v>
+        <v>15.7871516257543</v>
       </c>
       <c r="D19">
-        <v>8.22339131976633</v>
+        <v>8.487365831967301</v>
       </c>
       <c r="E19">
-        <v>4.639786507169194</v>
+        <v>9.085202486779401</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.134089091151219</v>
+        <v>25.11343465600224</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.972661951633768</v>
       </c>
       <c r="I19">
-        <v>76.62509803686801</v>
+        <v>2.938908927082848</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.881356934804481</v>
       </c>
       <c r="K19">
-        <v>13.95997849331577</v>
+        <v>13.65425404769051</v>
       </c>
       <c r="L19">
-        <v>7.681314215600622</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.29788467255622</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.303310573666865</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.34153908576114</v>
+      </c>
+      <c r="P19">
+        <v>12.47582679347089</v>
+      </c>
+      <c r="Q19">
+        <v>15.1044007839556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.08821783631033</v>
+        <v>22.3595224815403</v>
       </c>
       <c r="C20">
-        <v>16.12840267548284</v>
+        <v>15.401455609745</v>
       </c>
       <c r="D20">
-        <v>8.402528333536308</v>
+        <v>8.659535146633742</v>
       </c>
       <c r="E20">
-        <v>4.629629139664089</v>
+        <v>9.169834177701148</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.128625368563216</v>
+        <v>27.22209997670166</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.882790503576294</v>
       </c>
       <c r="I20">
-        <v>77.95805126438589</v>
+        <v>3.04008763442222</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.230856089836129</v>
       </c>
       <c r="K20">
-        <v>14.2842630788504</v>
+        <v>14.33306804191276</v>
       </c>
       <c r="L20">
-        <v>7.739953896229021</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.37363227031057</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.321182089712053</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.54904018525517</v>
+      </c>
+      <c r="P20">
+        <v>12.28239472516753</v>
+      </c>
+      <c r="Q20">
+        <v>16.00210079151269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.13247085818609</v>
+        <v>23.73999749554334</v>
       </c>
       <c r="C21">
-        <v>17.19074536279201</v>
+        <v>16.02369001998333</v>
       </c>
       <c r="D21">
-        <v>8.991842673667344</v>
+        <v>9.206194336516663</v>
       </c>
       <c r="E21">
-        <v>4.596669392042059</v>
+        <v>9.301952502157819</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.110158663370919</v>
+        <v>28.50403867959683</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.110532479063014</v>
       </c>
       <c r="I21">
-        <v>82.37497107647607</v>
+        <v>3.225580413157604</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.361609102494874</v>
       </c>
       <c r="K21">
-        <v>15.3579816722889</v>
+        <v>14.41578568839794</v>
       </c>
       <c r="L21">
-        <v>7.941381523229754</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10.64528888232294</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.602142391638288</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.27433020972238</v>
+      </c>
+      <c r="P21">
+        <v>12.16982323480631</v>
+      </c>
+      <c r="Q21">
+        <v>16.45422774547085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.81407572771072</v>
+        <v>24.59558057099753</v>
       </c>
       <c r="C22">
-        <v>17.87735043466979</v>
+        <v>16.42516656207269</v>
       </c>
       <c r="D22">
-        <v>9.368535380629105</v>
+        <v>9.549006130513652</v>
       </c>
       <c r="E22">
-        <v>4.576023026108471</v>
+        <v>9.37433093356875</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.097952939953487</v>
+        <v>29.28823494216265</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.252719079290592</v>
       </c>
       <c r="I22">
-        <v>85.22077960343773</v>
+        <v>3.338856163660452</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.442490166482742</v>
       </c>
       <c r="K22">
-        <v>16.04989852181649</v>
+        <v>14.46103175712224</v>
       </c>
       <c r="L22">
-        <v>8.076576488251201</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>10.9746101525457</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.731394045675234</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.6890929906314</v>
+      </c>
+      <c r="P22">
+        <v>12.10216774425538</v>
+      </c>
+      <c r="Q22">
+        <v>16.73337876316318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.45022309254501</v>
+        <v>24.15603004591869</v>
       </c>
       <c r="C23">
-        <v>17.50947436807092</v>
+        <v>16.19253492957485</v>
       </c>
       <c r="D23">
-        <v>9.168198436191382</v>
+        <v>9.367430005550945</v>
       </c>
       <c r="E23">
-        <v>4.586958632940041</v>
+        <v>9.33811220825517</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.104483733983368</v>
+        <v>28.90877295369807</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.177977729229013</v>
       </c>
       <c r="I23">
-        <v>83.70529250194011</v>
+        <v>3.274953259076608</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.406367697953877</v>
       </c>
       <c r="K23">
-        <v>15.68136854230208</v>
+        <v>14.45433737919162</v>
       </c>
       <c r="L23">
-        <v>8.004076028208871</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>10.73315142460308</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.660863772404195</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.47289851224489</v>
+      </c>
+      <c r="P23">
+        <v>12.13468275119338</v>
+      </c>
+      <c r="Q23">
+        <v>16.6016466279057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.07110552571419</v>
+        <v>22.3885424208614</v>
       </c>
       <c r="C24">
-        <v>16.11079870653688</v>
+        <v>15.31670294341545</v>
       </c>
       <c r="D24">
-        <v>8.392740363066473</v>
+        <v>8.650800030925589</v>
       </c>
       <c r="E24">
-        <v>4.630182592359454</v>
+        <v>9.195064231322549</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.128925692984541</v>
+        <v>27.39344826636125</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.887511568717234</v>
       </c>
       <c r="I24">
-        <v>77.88509469538852</v>
+        <v>3.034306848547818</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.264337929139971</v>
       </c>
       <c r="K24">
-        <v>14.266519063753</v>
+        <v>14.41175419864185</v>
       </c>
       <c r="L24">
-        <v>7.736717697160719</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.36941022565945</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.39150147929548</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.6175440696035</v>
+      </c>
+      <c r="P24">
+        <v>12.2681026207989</v>
+      </c>
+      <c r="Q24">
+        <v>16.08114049971059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.56773446888304</v>
+        <v>20.30620426167733</v>
       </c>
       <c r="C25">
-        <v>14.53803735678084</v>
+        <v>14.31706667325891</v>
       </c>
       <c r="D25">
-        <v>7.514417693416815</v>
+        <v>7.815224196950399</v>
       </c>
       <c r="E25">
-        <v>4.680508184504463</v>
+        <v>9.035646071301647</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.155040520139867</v>
+        <v>25.72968136717418</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.560812899269827</v>
       </c>
       <c r="I25">
-        <v>71.40201859819668</v>
+        <v>2.766324080716732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.125310747185654</v>
       </c>
       <c r="K25">
-        <v>12.82699673074928</v>
+        <v>14.39042234580269</v>
       </c>
       <c r="L25">
-        <v>7.461997057965146</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.03022628106451</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.090811127630364</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.63187260661326</v>
+      </c>
+      <c r="P25">
+        <v>12.42138496035982</v>
+      </c>
+      <c r="Q25">
+        <v>15.5358290748827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.65972720725723</v>
+        <v>18.4109813009965</v>
       </c>
       <c r="C2">
-        <v>13.4810936333929</v>
+        <v>13.61555783786681</v>
       </c>
       <c r="D2">
-        <v>7.145203405298458</v>
+        <v>7.145527256793854</v>
       </c>
       <c r="E2">
-        <v>8.919695801574509</v>
+        <v>8.804285944436067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.59455928762912</v>
+        <v>23.19513056967423</v>
       </c>
       <c r="H2">
-        <v>1.816697109418677</v>
+        <v>1.784875400071821</v>
       </c>
       <c r="I2">
-        <v>2.552408790602303</v>
+        <v>2.599630152289696</v>
       </c>
       <c r="J2">
-        <v>9.053408784066193</v>
+        <v>9.437159735136834</v>
       </c>
       <c r="K2">
-        <v>14.43860579227075</v>
+        <v>13.9985037282838</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.11893996479804</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.62507741110352</v>
       </c>
       <c r="N2">
-        <v>6.857019876041963</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.86538457254789</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.53537795617695</v>
+        <v>6.943396962232987</v>
       </c>
       <c r="Q2">
-        <v>15.19598188328186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.78316482584589</v>
+      </c>
+      <c r="R2">
+        <v>12.53259624328405</v>
+      </c>
+      <c r="S2">
+        <v>14.84270476632791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.42580432852508</v>
+        <v>17.22477813734684</v>
       </c>
       <c r="C3">
-        <v>12.91706936101694</v>
+        <v>12.96723324510338</v>
       </c>
       <c r="D3">
-        <v>6.656153314886049</v>
+        <v>6.657338281522075</v>
       </c>
       <c r="E3">
-        <v>8.834233085840131</v>
+        <v>8.730343407808329</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.75997880558637</v>
+        <v>22.44800878410943</v>
       </c>
       <c r="H3">
-        <v>1.999913359909738</v>
+        <v>1.955358775243645</v>
       </c>
       <c r="I3">
-        <v>2.539431523313769</v>
+        <v>2.479879739885057</v>
       </c>
       <c r="J3">
-        <v>9.001179074992411</v>
+        <v>9.372751888037294</v>
       </c>
       <c r="K3">
-        <v>14.45688424281593</v>
+        <v>14.04818069921563</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.2511083931443</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.577082453459624</v>
       </c>
       <c r="N3">
-        <v>6.69686592851086</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.3098663626282</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.62144918172853</v>
+        <v>6.785892433971704</v>
       </c>
       <c r="Q3">
-        <v>14.94980137469774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.2366335659875</v>
+      </c>
+      <c r="R3">
+        <v>12.59680164757395</v>
+      </c>
+      <c r="S3">
+        <v>14.63547420748611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.61936266928162</v>
+        <v>16.44934805792008</v>
       </c>
       <c r="C4">
-        <v>12.55876896458279</v>
+        <v>12.55480484684187</v>
       </c>
       <c r="D4">
-        <v>6.338492098831286</v>
+        <v>6.340147943825294</v>
       </c>
       <c r="E4">
-        <v>8.779899113881038</v>
+        <v>8.683311958606511</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.24429973151287</v>
+        <v>21.98834481932136</v>
       </c>
       <c r="H4">
-        <v>2.116534033280987</v>
+        <v>2.063923364123794</v>
       </c>
       <c r="I4">
-        <v>2.63622275970504</v>
+        <v>2.566620836640008</v>
       </c>
       <c r="J4">
-        <v>8.972204313698651</v>
+        <v>9.334052551430906</v>
       </c>
       <c r="K4">
-        <v>14.47254071786092</v>
+        <v>14.08183211202672</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.33354698673313</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.568338946319765</v>
       </c>
       <c r="N4">
-        <v>6.596687725754114</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.95450712538391</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.67666544746008</v>
+        <v>6.687678997735159</v>
       </c>
       <c r="Q4">
-        <v>14.80305449021425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.88672603201742</v>
+      </c>
+      <c r="R4">
+        <v>12.63898101328707</v>
+      </c>
+      <c r="S4">
+        <v>14.51169408581107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.27360144991147</v>
+        <v>16.11666978051371</v>
       </c>
       <c r="C5">
-        <v>12.41589087166696</v>
+        <v>12.3897125179716</v>
       </c>
       <c r="D5">
-        <v>6.21163873628312</v>
+        <v>6.212944533616191</v>
       </c>
       <c r="E5">
-        <v>8.756549886191364</v>
+        <v>8.663045621882235</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.02163279664215</v>
+        <v>21.78882390219701</v>
       </c>
       <c r="H5">
-        <v>2.165405626013698</v>
+        <v>2.109443278745921</v>
       </c>
       <c r="I5">
-        <v>2.679849074847419</v>
+        <v>2.606654991110983</v>
       </c>
       <c r="J5">
-        <v>8.959184346898883</v>
+        <v>9.316542884534496</v>
       </c>
       <c r="K5">
-        <v>14.47532544298348</v>
+        <v>14.09175984166146</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.36330352405881</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.567325299342645</v>
       </c>
       <c r="N5">
-        <v>6.555920667741666</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.80502792229605</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.70031935678768</v>
+        <v>6.647804145037616</v>
       </c>
       <c r="Q5">
-        <v>14.73939171374338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.73944100054582</v>
+      </c>
+      <c r="R5">
+        <v>12.65750422949009</v>
+      </c>
+      <c r="S5">
+        <v>14.45715976197796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.20956782422597</v>
+        <v>16.05484245332838</v>
       </c>
       <c r="C6">
-        <v>12.39940977624689</v>
+        <v>12.37000203448554</v>
       </c>
       <c r="D6">
-        <v>6.192496441746803</v>
+        <v>6.193819294260564</v>
       </c>
       <c r="E6">
-        <v>8.751753925327794</v>
+        <v>8.658825337622657</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.96994204734717</v>
+        <v>21.7407661312378</v>
       </c>
       <c r="H6">
-        <v>2.173946836970436</v>
+        <v>2.117415275010902</v>
       </c>
       <c r="I6">
-        <v>2.69113077398397</v>
+        <v>2.618036210646147</v>
       </c>
       <c r="J6">
-        <v>8.954645705900207</v>
+        <v>9.311256890394265</v>
       </c>
       <c r="K6">
-        <v>14.47013581202859</v>
+        <v>14.08789446836235</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.36318145524348</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.564208007103929</v>
       </c>
       <c r="N6">
-        <v>6.549723549825398</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.77849967217508</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.70497969335962</v>
+        <v>6.641765583171106</v>
       </c>
       <c r="Q6">
-        <v>14.72276448255289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.71327018004229</v>
+      </c>
+      <c r="R6">
+        <v>12.66142648835774</v>
+      </c>
+      <c r="S6">
+        <v>14.44206541177889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.59909507220824</v>
+        <v>16.42352281654328</v>
       </c>
       <c r="C7">
-        <v>12.57686761298575</v>
+        <v>12.56618559807546</v>
       </c>
       <c r="D7">
-        <v>6.336644550347083</v>
+        <v>6.338255994699048</v>
       </c>
       <c r="E7">
-        <v>8.777191925681556</v>
+        <v>8.68066477022005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.20161873087622</v>
+        <v>22.0393062641715</v>
       </c>
       <c r="H7">
-        <v>2.118160444300322</v>
+        <v>2.065973236848981</v>
       </c>
       <c r="I7">
-        <v>2.647334029017443</v>
+        <v>2.580032525531818</v>
       </c>
       <c r="J7">
-        <v>8.965427376277974</v>
+        <v>9.284877116883768</v>
       </c>
       <c r="K7">
-        <v>14.45697441399447</v>
+        <v>14.06130942521676</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.31541631435171</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.555649107446722</v>
       </c>
       <c r="N7">
-        <v>6.597765571931669</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.94846112685401</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.6789537037638</v>
+        <v>6.688364080353276</v>
       </c>
       <c r="Q7">
-        <v>14.78555174023085</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.87836594642232</v>
+      </c>
+      <c r="R7">
+        <v>12.64244002894873</v>
+      </c>
+      <c r="S7">
+        <v>14.48339295740852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.22526849414043</v>
+        <v>17.97503910582308</v>
       </c>
       <c r="C8">
-        <v>13.31455135011511</v>
+        <v>13.3976718296772</v>
       </c>
       <c r="D8">
-        <v>6.980087563041937</v>
+        <v>6.980556878953815</v>
       </c>
       <c r="E8">
-        <v>8.887593629660193</v>
+        <v>8.775958439626939</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.25729665698176</v>
+        <v>23.1874494599982</v>
       </c>
       <c r="H8">
-        <v>1.88023100828088</v>
+        <v>1.845562356743204</v>
       </c>
       <c r="I8">
-        <v>2.505972197176206</v>
+        <v>2.558020747237514</v>
       </c>
       <c r="J8">
-        <v>9.026115025475207</v>
+        <v>9.267951223876238</v>
       </c>
       <c r="K8">
-        <v>14.42340923743084</v>
+        <v>13.97701417893699</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.13266589449341</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.577613876488554</v>
       </c>
       <c r="N8">
-        <v>6.804325847376715</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.6718232891612</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.5674638352248</v>
+        <v>6.89025886177417</v>
       </c>
       <c r="Q8">
-        <v>15.08865220513554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.5853791337347</v>
+      </c>
+      <c r="R8">
+        <v>12.56095791711498</v>
+      </c>
+      <c r="S8">
+        <v>14.71323986962713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.05415253861059</v>
+        <v>20.6917703800827</v>
       </c>
       <c r="C9">
-        <v>14.62900594800279</v>
+        <v>14.90246297647602</v>
       </c>
       <c r="D9">
-        <v>8.105273701153939</v>
+        <v>8.103167086370696</v>
       </c>
       <c r="E9">
-        <v>9.093858234397704</v>
+        <v>8.954554794551852</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.35658083311672</v>
+        <v>25.13972913908288</v>
       </c>
       <c r="H9">
-        <v>1.674159881471003</v>
+        <v>1.677928469705954</v>
       </c>
       <c r="I9">
-        <v>2.852897653819931</v>
+        <v>2.867965819508558</v>
       </c>
       <c r="J9">
-        <v>9.181740615350908</v>
+        <v>9.405468924890444</v>
       </c>
       <c r="K9">
-        <v>14.42211474889976</v>
+        <v>13.88476552905593</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.82401039507998</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.815420508572084</v>
       </c>
       <c r="N9">
-        <v>7.190570938311916</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.97836847977424</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.36396520828186</v>
+        <v>7.271417668685156</v>
       </c>
       <c r="Q9">
-        <v>15.74524884163718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.86818040025133</v>
+      </c>
+      <c r="R9">
+        <v>12.41555681948396</v>
+      </c>
+      <c r="S9">
+        <v>15.25985714343306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.85719165330636</v>
+        <v>22.39943870686106</v>
       </c>
       <c r="C10">
-        <v>15.59370870471272</v>
+        <v>15.95282994668832</v>
       </c>
       <c r="D10">
-        <v>8.84985043905556</v>
+        <v>8.845206499827112</v>
       </c>
       <c r="E10">
-        <v>9.206692204630409</v>
+        <v>9.053478609419596</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.68070410652699</v>
+        <v>26.84777180277783</v>
       </c>
       <c r="H10">
-        <v>1.961354844698202</v>
+        <v>1.942362527844939</v>
       </c>
       <c r="I10">
-        <v>3.092848542471426</v>
+        <v>3.081358053251926</v>
       </c>
       <c r="J10">
-        <v>9.278290551515088</v>
+        <v>9.251631813043641</v>
       </c>
       <c r="K10">
-        <v>14.37212119905369</v>
+        <v>13.73989849303033</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.53805034214835</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.002372063035985</v>
       </c>
       <c r="N10">
-        <v>7.36654670413051</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.7655623365802</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.24240264757709</v>
+        <v>7.441855959587357</v>
       </c>
       <c r="Q10">
-        <v>16.16424486721046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.62837907804664</v>
+      </c>
+      <c r="R10">
+        <v>12.347682042426</v>
+      </c>
+      <c r="S10">
+        <v>15.54316133852089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.28773144166939</v>
+        <v>22.78633778813323</v>
       </c>
       <c r="C11">
-        <v>16.51641148089645</v>
+        <v>16.80915001761933</v>
       </c>
       <c r="D11">
-        <v>9.167683976554558</v>
+        <v>9.161666128614845</v>
       </c>
       <c r="E11">
-        <v>9.179715302135669</v>
+        <v>9.060904917751683</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.81105437805724</v>
+        <v>27.05568641635344</v>
       </c>
       <c r="H11">
-        <v>2.855715786969109</v>
+        <v>2.836029314447451</v>
       </c>
       <c r="I11">
-        <v>3.166939109024162</v>
+        <v>3.146270928747206</v>
       </c>
       <c r="J11">
-        <v>9.050713029609479</v>
+        <v>8.593832089288862</v>
       </c>
       <c r="K11">
-        <v>13.76307611966335</v>
+        <v>13.12123301909083</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.04721442753959</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.608162597562972</v>
       </c>
       <c r="N11">
-        <v>6.655342547460427</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.30277930676237</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.33689690877933</v>
+        <v>6.713361288832529</v>
       </c>
       <c r="Q11">
-        <v>15.69490934415391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.14745235898545</v>
+      </c>
+      <c r="R11">
+        <v>12.49152919834865</v>
+      </c>
+      <c r="S11">
+        <v>14.9724328469264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.30208445153193</v>
+        <v>22.79891098573215</v>
       </c>
       <c r="C12">
-        <v>17.08447628613149</v>
+        <v>17.31999709565098</v>
       </c>
       <c r="D12">
-        <v>9.284296154905892</v>
+        <v>9.277850839547803</v>
       </c>
       <c r="E12">
-        <v>9.37920671575667</v>
+        <v>9.283766209564922</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.82971008890588</v>
+        <v>26.6226640798741</v>
       </c>
       <c r="H12">
-        <v>4.133186605497545</v>
+        <v>4.118622533385214</v>
       </c>
       <c r="I12">
-        <v>3.178671462710202</v>
+        <v>3.155022076829209</v>
       </c>
       <c r="J12">
-        <v>8.842357375338764</v>
+        <v>8.235594632993395</v>
       </c>
       <c r="K12">
-        <v>13.28500055593642</v>
+        <v>12.67828694909572</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.73851531154804</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.261504996941071</v>
       </c>
       <c r="N12">
-        <v>6.090933054685052</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.74512820818552</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.45675050558455</v>
+        <v>6.135158906579685</v>
       </c>
       <c r="Q12">
-        <v>15.22168153675008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.58726243324764</v>
+      </c>
+      <c r="R12">
+        <v>12.63530791736128</v>
+      </c>
+      <c r="S12">
+        <v>14.48044463945401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.98009433140865</v>
+        <v>22.51836429803129</v>
       </c>
       <c r="C13">
-        <v>17.45134006809507</v>
+        <v>17.65277623940544</v>
       </c>
       <c r="D13">
-        <v>9.256651413725031</v>
+        <v>9.250637216612729</v>
       </c>
       <c r="E13">
-        <v>9.74029184636851</v>
+        <v>9.66832881438709</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>24.62203239967301</v>
+        <v>25.38639444026943</v>
       </c>
       <c r="H13">
-        <v>5.469337671380113</v>
+        <v>5.459869011705882</v>
       </c>
       <c r="I13">
-        <v>3.146994998814386</v>
+        <v>3.127350370058213</v>
       </c>
       <c r="J13">
-        <v>8.624633107800463</v>
+        <v>8.12771600275356</v>
       </c>
       <c r="K13">
-        <v>12.85691648458071</v>
+        <v>12.33119652648889</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.52797963152872</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.926423861343819</v>
       </c>
       <c r="N13">
-        <v>5.626211256849753</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>12.06152682912629</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.60127204589848</v>
+        <v>5.659683359236597</v>
       </c>
       <c r="Q13">
-        <v>14.68515458004106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.91749616108669</v>
+      </c>
+      <c r="R13">
+        <v>12.77871288352147</v>
+      </c>
+      <c r="S13">
+        <v>14.01340652720933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.59428352374839</v>
+        <v>22.18129752176886</v>
       </c>
       <c r="C14">
-        <v>17.62727879898897</v>
+        <v>17.81518213769696</v>
       </c>
       <c r="D14">
-        <v>9.171691703237</v>
+        <v>9.166353728403427</v>
       </c>
       <c r="E14">
-        <v>10.08228151795157</v>
+        <v>10.02853849314574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>23.65155432725154</v>
+        <v>24.14220055630419</v>
       </c>
       <c r="H14">
-        <v>6.452315541775973</v>
+        <v>6.45708966948968</v>
       </c>
       <c r="I14">
-        <v>3.106330393621701</v>
+        <v>3.092941040600458</v>
       </c>
       <c r="J14">
-        <v>8.466321980501506</v>
+        <v>8.150151120199666</v>
       </c>
       <c r="K14">
-        <v>12.58084502950076</v>
+        <v>12.12862777714084</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.41787187931548</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.698618214828327</v>
       </c>
       <c r="N14">
-        <v>5.375045315673947</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.51725708946966</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.71459240605512</v>
+        <v>5.402583404143687</v>
       </c>
       <c r="Q14">
-        <v>14.27446402222418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.39006033911694</v>
+      </c>
+      <c r="R14">
+        <v>12.87884219635589</v>
+      </c>
+      <c r="S14">
+        <v>13.68952167298959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.42195460695248</v>
+        <v>22.02946762095495</v>
       </c>
       <c r="C15">
-        <v>17.63355307639419</v>
+        <v>17.822922100518</v>
       </c>
       <c r="D15">
-        <v>9.119820039985054</v>
+        <v>9.114821018284649</v>
       </c>
       <c r="E15">
-        <v>10.16800388710864</v>
+        <v>10.12063689067127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>23.35384787471852</v>
+        <v>23.66934663321803</v>
       </c>
       <c r="H15">
-        <v>6.690444795941415</v>
+        <v>6.694584797790121</v>
       </c>
       <c r="I15">
-        <v>3.088067110766168</v>
+        <v>3.078203576064658</v>
       </c>
       <c r="J15">
-        <v>8.424342667054727</v>
+        <v>8.196954383488027</v>
       </c>
       <c r="K15">
-        <v>12.52013011186346</v>
+        <v>12.09295123248663</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.4040116501289</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.643244671282552</v>
       </c>
       <c r="N15">
-        <v>5.325405824935625</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.35601815619546</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.74606156668947</v>
+        <v>5.352410130401368</v>
       </c>
       <c r="Q15">
-        <v>14.15660919190369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.23595933840963</v>
+      </c>
+      <c r="R15">
+        <v>12.90210239665016</v>
+      </c>
+      <c r="S15">
+        <v>13.60899584754146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.71896928637797</v>
+        <v>21.39989638016732</v>
       </c>
       <c r="C16">
-        <v>17.19243843783636</v>
+        <v>17.41607798625928</v>
       </c>
       <c r="D16">
-        <v>8.819496260390425</v>
+        <v>8.816050067440246</v>
       </c>
       <c r="E16">
-        <v>10.03631653054668</v>
+        <v>10.00557684100742</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.9412629006908</v>
+        <v>22.36851011066578</v>
       </c>
       <c r="H16">
-        <v>6.475481571352409</v>
+        <v>6.4772949680447</v>
       </c>
       <c r="I16">
-        <v>2.993890367943495</v>
+        <v>2.99860178596367</v>
       </c>
       <c r="J16">
-        <v>8.419523254782552</v>
+        <v>8.573618089554053</v>
       </c>
       <c r="K16">
-        <v>12.6231880098577</v>
+        <v>12.25421829014529</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.55086122103051</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.676302493238922</v>
       </c>
       <c r="N16">
-        <v>5.33495170540402</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>11.12357844174273</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.75551863098994</v>
+        <v>5.370495900745377</v>
       </c>
       <c r="Q16">
-        <v>14.05856177961206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.02888398302226</v>
+      </c>
+      <c r="R16">
+        <v>12.86954256848133</v>
+      </c>
+      <c r="S16">
+        <v>13.64455468609941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.38289187296045</v>
+        <v>21.08691405924971</v>
       </c>
       <c r="C17">
-        <v>16.75027071231878</v>
+        <v>16.99623891986945</v>
       </c>
       <c r="D17">
-        <v>8.631483246896344</v>
+        <v>8.628767305320205</v>
       </c>
       <c r="E17">
-        <v>9.734644036718898</v>
+        <v>9.70202483396093</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.16028603653901</v>
+        <v>22.18022010591378</v>
       </c>
       <c r="H17">
-        <v>5.728748453878743</v>
+        <v>5.729233071668436</v>
       </c>
       <c r="I17">
-        <v>2.943364461910821</v>
+        <v>2.955486323285555</v>
       </c>
       <c r="J17">
-        <v>8.50100481434824</v>
+        <v>8.812132267090439</v>
       </c>
       <c r="K17">
-        <v>12.84586217911082</v>
+        <v>12.47979034119804</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.7276288447593</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.81257869413712</v>
       </c>
       <c r="N17">
-        <v>5.462490013144528</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.24424713322035</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.70434082303961</v>
+        <v>5.507202004488303</v>
       </c>
       <c r="Q17">
-        <v>14.20663513859794</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.15727793970671</v>
+      </c>
+      <c r="R17">
+        <v>12.79804982378803</v>
+      </c>
+      <c r="S17">
+        <v>13.83392168464133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.3467574652109</v>
+        <v>21.04182421129079</v>
       </c>
       <c r="C18">
-        <v>16.24945286825818</v>
+        <v>16.5226098949967</v>
       </c>
       <c r="D18">
-        <v>8.522810853432761</v>
+        <v>8.520333397610333</v>
       </c>
       <c r="E18">
-        <v>9.347713459790576</v>
+        <v>9.296629669923723</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.96993225327038</v>
+        <v>22.7719432018007</v>
       </c>
       <c r="H18">
-        <v>4.456711972479819</v>
+        <v>4.45665305885643</v>
       </c>
       <c r="I18">
-        <v>2.922903347724035</v>
+        <v>2.936371730977283</v>
       </c>
       <c r="J18">
-        <v>8.668881953042606</v>
+        <v>9.029804728292692</v>
       </c>
       <c r="K18">
-        <v>13.21254489105534</v>
+        <v>12.81233341254951</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.97181905939994</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.066052845683178</v>
       </c>
       <c r="N18">
-        <v>5.776161372320172</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.68667748370708</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.59916884862835</v>
+        <v>5.831562799197603</v>
       </c>
       <c r="Q18">
-        <v>14.59109744102683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.59725988894846</v>
+      </c>
+      <c r="R18">
+        <v>12.68289523950584</v>
+      </c>
+      <c r="S18">
+        <v>14.20803204145206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.53232668116147</v>
+        <v>21.19763426093741</v>
       </c>
       <c r="C19">
-        <v>15.7871516257543</v>
+        <v>16.09476242903646</v>
       </c>
       <c r="D19">
-        <v>8.487365831967301</v>
+        <v>8.484762023699833</v>
       </c>
       <c r="E19">
-        <v>9.085202486779401</v>
+        <v>9.000949254286697</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.11343465600224</v>
+        <v>23.78944285338599</v>
       </c>
       <c r="H19">
-        <v>2.972661951633768</v>
+        <v>2.97199355095289</v>
       </c>
       <c r="I19">
-        <v>2.938908927082848</v>
+        <v>2.951299347379406</v>
       </c>
       <c r="J19">
-        <v>8.881356934804481</v>
+        <v>9.234144872465381</v>
       </c>
       <c r="K19">
-        <v>13.65425404769051</v>
+        <v>13.19667463748463</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.24564795832148</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.383523421938905</v>
       </c>
       <c r="N19">
-        <v>6.303310573666865</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.34153908576114</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.47582679347089</v>
+        <v>6.36950352742091</v>
       </c>
       <c r="Q19">
-        <v>15.1044007839556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.24343730983376</v>
+      </c>
+      <c r="R19">
+        <v>12.55538656728245</v>
+      </c>
+      <c r="S19">
+        <v>14.68009649388064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.3595224815403</v>
+        <v>21.94224745420468</v>
       </c>
       <c r="C20">
-        <v>15.401455609745</v>
+        <v>15.7647941163461</v>
       </c>
       <c r="D20">
-        <v>8.659535146633742</v>
+        <v>8.655793738130257</v>
       </c>
       <c r="E20">
-        <v>9.169834177701148</v>
+        <v>9.02148224144217</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.22209997670166</v>
+        <v>25.99835213534011</v>
       </c>
       <c r="H20">
-        <v>1.882790503576294</v>
+        <v>1.871156624539358</v>
       </c>
       <c r="I20">
-        <v>3.04008763442222</v>
+        <v>3.040398223446595</v>
       </c>
       <c r="J20">
-        <v>9.230856089836129</v>
+        <v>9.413821443605457</v>
       </c>
       <c r="K20">
-        <v>14.33306804191276</v>
+        <v>13.74826044059123</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.59228516996192</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.923840832393898</v>
       </c>
       <c r="N20">
-        <v>7.321182089712053</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.54904018525517</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.28239472516753</v>
+        <v>7.399142137715526</v>
       </c>
       <c r="Q20">
-        <v>16.00210079151269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.42582431052548</v>
+      </c>
+      <c r="R20">
+        <v>12.37018489131422</v>
+      </c>
+      <c r="S20">
+        <v>15.45425528938509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.73999749554334</v>
+        <v>23.16476983368586</v>
       </c>
       <c r="C21">
-        <v>16.02369001998333</v>
+        <v>16.33663502247526</v>
       </c>
       <c r="D21">
-        <v>9.206194336516663</v>
+        <v>9.19929149350946</v>
       </c>
       <c r="E21">
-        <v>9.301952502157819</v>
+        <v>9.134524184362338</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.50403867959683</v>
+        <v>29.05508996052917</v>
       </c>
       <c r="H21">
-        <v>2.110532479063014</v>
+        <v>2.074107700360655</v>
       </c>
       <c r="I21">
-        <v>3.225580413157604</v>
+        <v>3.19756960998323</v>
       </c>
       <c r="J21">
-        <v>9.361609102494874</v>
+        <v>8.635860540907924</v>
       </c>
       <c r="K21">
-        <v>14.41578568839794</v>
+        <v>13.63942651598206</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.37758299467875</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.086942128084948</v>
       </c>
       <c r="N21">
-        <v>7.602142391638288</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.27433020972238</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.16982323480631</v>
+        <v>7.67189559530002</v>
       </c>
       <c r="Q21">
-        <v>16.45422774547085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.09301659241908</v>
+      </c>
+      <c r="R21">
+        <v>12.32341942286472</v>
+      </c>
+      <c r="S21">
+        <v>15.59945395745156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.59558057099753</v>
+        <v>23.91833963185953</v>
       </c>
       <c r="C22">
-        <v>16.42516656207269</v>
+        <v>16.69563123171035</v>
       </c>
       <c r="D22">
-        <v>9.549006130513652</v>
+        <v>9.539913808259852</v>
       </c>
       <c r="E22">
-        <v>9.37433093356875</v>
+        <v>9.199082837599557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.28823494216265</v>
+        <v>31.08498938573678</v>
       </c>
       <c r="H22">
-        <v>2.252719079290592</v>
+        <v>2.200567026412642</v>
       </c>
       <c r="I22">
-        <v>3.338856163660452</v>
+        <v>3.291562220770545</v>
       </c>
       <c r="J22">
-        <v>9.442490166482742</v>
+        <v>8.122688184564488</v>
       </c>
       <c r="K22">
-        <v>14.46103175712224</v>
+        <v>13.55211090736181</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.22818181885323</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.188904636293698</v>
       </c>
       <c r="N22">
-        <v>7.731394045675234</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.6890929906314</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.10216774425538</v>
+        <v>7.795181909835231</v>
       </c>
       <c r="Q22">
-        <v>16.73337876316318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.46890926582603</v>
+      </c>
+      <c r="R22">
+        <v>12.30286543914732</v>
+      </c>
+      <c r="S22">
+        <v>15.66721474680073</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.15603004591869</v>
+        <v>23.5438579039802</v>
       </c>
       <c r="C23">
-        <v>16.19253492957485</v>
+        <v>16.50066371633614</v>
       </c>
       <c r="D23">
-        <v>9.367430005550945</v>
+        <v>9.359636751656714</v>
       </c>
       <c r="E23">
-        <v>9.33811220825517</v>
+        <v>9.166424040744245</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.90877295369807</v>
+        <v>29.83500909885831</v>
       </c>
       <c r="H23">
-        <v>2.177977729229013</v>
+        <v>2.134988823044258</v>
       </c>
       <c r="I23">
-        <v>3.274953259076608</v>
+        <v>3.237394518224165</v>
       </c>
       <c r="J23">
-        <v>9.406367697953877</v>
+        <v>8.486247000965294</v>
       </c>
       <c r="K23">
-        <v>14.45433737919162</v>
+        <v>13.62951020454289</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.32758687679721</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.161091736678806</v>
       </c>
       <c r="N23">
-        <v>7.660863772404195</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.47289851224489</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.13468275119338</v>
+        <v>7.728598952461358</v>
       </c>
       <c r="Q23">
-        <v>16.6016466279057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.27828726593738</v>
+      </c>
+      <c r="R23">
+        <v>12.30570333925719</v>
+      </c>
+      <c r="S23">
+        <v>15.67476067583018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.3885424208614</v>
+        <v>21.96925534983232</v>
       </c>
       <c r="C24">
-        <v>15.31670294341545</v>
+        <v>15.68124225078381</v>
       </c>
       <c r="D24">
-        <v>8.650800030925589</v>
+        <v>8.647055031329042</v>
       </c>
       <c r="E24">
-        <v>9.195064231322549</v>
+        <v>9.042045779864532</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.39344826636125</v>
+        <v>26.14616378590181</v>
       </c>
       <c r="H24">
-        <v>1.887511568717234</v>
+        <v>1.875756991468578</v>
       </c>
       <c r="I24">
-        <v>3.034306848547818</v>
+        <v>3.032377944297686</v>
       </c>
       <c r="J24">
-        <v>9.264337929139971</v>
+        <v>9.451365426988847</v>
       </c>
       <c r="K24">
-        <v>14.41175419864185</v>
+        <v>13.82025374662408</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.64463123317</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.981294796961718</v>
       </c>
       <c r="N24">
-        <v>7.39150147929548</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.6175440696035</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.2681026207989</v>
+        <v>7.47044277093946</v>
       </c>
       <c r="Q24">
-        <v>16.08114049971059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.49379507485928</v>
+      </c>
+      <c r="R24">
+        <v>12.35352918254807</v>
+      </c>
+      <c r="S24">
+        <v>15.53056919872239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.30620426167733</v>
+        <v>19.97967749732908</v>
       </c>
       <c r="C25">
-        <v>14.31706667325891</v>
+        <v>14.55305070850633</v>
       </c>
       <c r="D25">
-        <v>7.815224196950399</v>
+        <v>7.813956060719423</v>
       </c>
       <c r="E25">
-        <v>9.035646071301647</v>
+        <v>8.904140082908556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.72968136717418</v>
+        <v>24.42767707923931</v>
       </c>
       <c r="H25">
-        <v>1.560812899269827</v>
+        <v>1.573179298980678</v>
       </c>
       <c r="I25">
-        <v>2.766324080716732</v>
+        <v>2.793558534477172</v>
       </c>
       <c r="J25">
-        <v>9.125310747185654</v>
+        <v>9.414710148990803</v>
       </c>
       <c r="K25">
-        <v>14.39042234580269</v>
+        <v>13.88784091284754</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.89239842651505</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.718892971035231</v>
       </c>
       <c r="N25">
-        <v>7.090811127630364</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.63187260661326</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.42138496035982</v>
+        <v>7.173347858659787</v>
       </c>
       <c r="Q25">
-        <v>15.5358290748827</v>
+        <v>12.53102686796758</v>
+      </c>
+      <c r="R25">
+        <v>12.45599375093505</v>
+      </c>
+      <c r="S25">
+        <v>15.09607451783145</v>
       </c>
     </row>
   </sheetData>
